--- a/DECK.xlsx
+++ b/DECK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338334D3-D5FB-423E-8B04-282C7FA9C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFBAFC-EA22-4B91-96F1-B1F75D141F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
   <si>
     <t>DECK</t>
   </si>
@@ -358,16 +358,29 @@
   </si>
   <si>
     <t>Wholesale Revenue</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -518,7 +531,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -547,8 +560,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C395AD81-88EE-407E-AFB3-8F4FE0F8204A}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>101.11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,7 +937,7 @@
         <v>149.43587500000001</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -943,7 +955,7 @@
       </c>
       <c r="M4" s="2">
         <f>M3*M2</f>
-        <v>15109.461321250001</v>
+        <v>17782.869125000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -957,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="2">
-        <v>2240.9229999999998</v>
+        <v>1720.4159999999999</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -971,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -983,7 +995,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>12868.538321250002</v>
+        <v>16062.453125000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1089,13 +1101,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E627EB27-452B-48DD-8092-5ECA5113EA18}">
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,12 +1116,12 @@
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
@@ -1134,29 +1146,41 @@
       <c r="J2" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="K2" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="L2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1178,17 +1202,21 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="20">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20">
         <v>1929.211</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="U3" s="20">
         <v>2239.1320000000001</v>
       </c>
-      <c r="R3" s="21">
+      <c r="V3" s="21">
         <v>2531.3510000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -1210,17 +1238,21 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="20">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20">
         <v>1412.9159999999999</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="U4" s="20">
         <v>1806.74</v>
       </c>
-      <c r="R4" s="21">
+      <c r="V4" s="21">
         <v>2233.09</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -1242,15 +1274,19 @@
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20">
         <v>183.06100000000001</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="U5" s="20">
         <v>148.51900000000001</v>
       </c>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -1272,15 +1308,19 @@
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="20">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
         <v>37.966000000000001</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="U6" s="20">
         <v>25.449000000000002</v>
       </c>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -1302,15 +1342,19 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="20">
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20">
         <v>64.132000000000005</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="U7" s="20">
         <v>67.923000000000002</v>
       </c>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V7" s="21"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>106</v>
@@ -1330,11 +1374,15 @@
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="21">
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21">
         <v>2855.8649999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>101</v>
@@ -1358,11 +1406,15 @@
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="21">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21">
         <v>2129.7469999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1426,9 @@
         <v>1560.307</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>825.34699999999998</v>
+      </c>
       <c r="H10" s="22">
         <v>1311.32</v>
       </c>
@@ -1382,24 +1436,30 @@
         <v>1827.165</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22">
+        <v>964.53800000000001</v>
+      </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="22">
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22">
         <v>3150.3389999999999</v>
       </c>
-      <c r="P10" s="22">
+      <c r="T10" s="22">
         <v>3627.2860000000001</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="U10" s="22">
         <v>4287.7629999999999</v>
       </c>
-      <c r="R10" s="22">
+      <c r="V10" s="22">
         <v>4985.6120000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1471,9 @@
         <v>643.73800000000006</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>355.34699999999998</v>
+      </c>
       <c r="H11" s="20">
         <v>578.048</v>
       </c>
@@ -1419,29 +1481,35 @@
         <v>724.54200000000003</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>426.63200000000001</v>
+      </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="20">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20">
         <v>1542.788</v>
       </c>
-      <c r="P11" s="20">
+      <c r="T11" s="20">
         <v>1801.9159999999999</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="U11" s="20">
         <v>1902.2750000000001</v>
       </c>
-      <c r="R11" s="20">
+      <c r="V11" s="20">
         <v>2099.9490000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:J12" si="0">C10-C11</f>
+        <f t="shared" ref="C12:K12" si="0">C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -1458,7 +1526,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="0"/>
@@ -1472,37 +1540,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20">
-        <f t="shared" ref="L12:P12" si="1">L10-L11</f>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>537.90599999999995</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
+        <f t="shared" ref="P12:T12" si="1">P10-P11</f>
         <v>0</v>
       </c>
-      <c r="M12" s="20">
+      <c r="Q12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="20">
+      <c r="R12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="20">
+      <c r="S12" s="20">
         <f t="shared" si="1"/>
         <v>1607.5509999999999</v>
       </c>
-      <c r="P12" s="20">
+      <c r="T12" s="20">
         <f t="shared" si="1"/>
         <v>1825.3700000000001</v>
       </c>
-      <c r="Q12" s="20">
-        <f>Q10-Q11</f>
+      <c r="U12" s="20">
+        <f>U10-U11</f>
         <v>2385.4879999999998</v>
       </c>
-      <c r="R12" s="20">
-        <f>R10-R11</f>
+      <c r="V12" s="20">
+        <f>V10-V11</f>
         <v>2885.663</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +1589,9 @@
         <v>428.67</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>337.19299999999998</v>
+      </c>
       <c r="H13" s="20">
         <v>428.18599999999998</v>
       </c>
@@ -1522,24 +1599,30 @@
         <v>535.34900000000005</v>
       </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20">
+        <v>372.61900000000003</v>
+      </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="20">
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20">
         <v>1042.8440000000001</v>
       </c>
-      <c r="P13" s="20">
+      <c r="T13" s="20">
         <v>1172.6189999999999</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="U13" s="20">
         <v>1457.9469999999999</v>
       </c>
-      <c r="R13" s="20">
+      <c r="V13" s="20">
         <v>1706.5709999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1556,12 +1639,12 @@
         <v>487.89899999999994</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" ref="F14:J14" si="5">F12-F13</f>
+        <f t="shared" ref="F14:K14" si="5">F12-F13</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>132.80700000000002</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="5"/>
@@ -1575,37 +1658,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20">
-        <f t="shared" ref="L14:P14" si="6">L12-L13</f>
+      <c r="K14" s="20">
+        <f t="shared" si="5"/>
+        <v>165.28699999999992</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20">
+        <f t="shared" ref="P14:T14" si="6">P12-P13</f>
         <v>0</v>
       </c>
-      <c r="M14" s="20">
+      <c r="Q14" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N14" s="20">
+      <c r="R14" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="20">
+      <c r="S14" s="20">
         <f t="shared" si="6"/>
         <v>564.70699999999988</v>
       </c>
-      <c r="P14" s="20">
+      <c r="T14" s="20">
         <f t="shared" si="6"/>
         <v>652.7510000000002</v>
       </c>
-      <c r="Q14" s="20">
-        <f>Q12-Q13</f>
+      <c r="U14" s="20">
+        <f>U12-U13</f>
         <v>927.54099999999994</v>
       </c>
-      <c r="R14" s="20">
-        <f>R12-R13</f>
+      <c r="V14" s="20">
+        <f>V12-V13</f>
         <v>1179.0920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1707,9 @@
         <v>11.154</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>16.346</v>
+      </c>
       <c r="H15" s="20">
         <v>14.797000000000001</v>
       </c>
@@ -1625,24 +1717,30 @@
         <v>16.667999999999999</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20">
+        <v>17.779</v>
+      </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="20">
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20">
         <v>1.901</v>
       </c>
-      <c r="P15" s="20">
+      <c r="T15" s="20">
         <v>15.563000000000001</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="U15" s="20">
         <v>52.207999999999998</v>
       </c>
-      <c r="R15" s="20">
+      <c r="V15" s="20">
         <v>68.388999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +1752,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
       <c r="H16" s="20">
         <v>1.151</v>
       </c>
@@ -1662,24 +1762,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20">
         <v>2.0830000000000002</v>
       </c>
-      <c r="P16" s="20">
+      <c r="T16" s="20">
         <v>3.4420000000000002</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="U16" s="20">
         <v>2.6539999999999999</v>
       </c>
-      <c r="R16" s="20">
+      <c r="V16" s="20">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1797,9 @@
         <v>0</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
       <c r="H17" s="20">
         <v>0.18</v>
       </c>
@@ -1699,24 +1807,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="20">
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20">
         <v>0.113</v>
       </c>
-      <c r="P17" s="20">
+      <c r="T17" s="20">
         <v>1.21</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="U17" s="20">
         <v>1.7829999999999999</v>
       </c>
-      <c r="R17" s="20">
+      <c r="V17" s="20">
         <v>-0.66500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -1738,51 +1852,58 @@
       </c>
       <c r="G18" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>149.15300000000002</v>
       </c>
       <c r="H18" s="20">
         <f>+H14-H16+H15+H17</f>
         <v>318.91199999999998</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" ref="I18:J18" si="8">+I14-I16+I15+I17</f>
+        <f t="shared" ref="I18:K18" si="8">+I14-I16+I15+I17</f>
         <v>583.94200000000001</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20">
-        <f t="shared" ref="L18" si="9">+L14-L16+L15+L17</f>
+      <c r="K18" s="20">
+        <f t="shared" si="8"/>
+        <v>183.06599999999992</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20">
+        <f t="shared" ref="P18" si="9">+P14-P16+P15+P17</f>
         <v>0</v>
       </c>
-      <c r="M18" s="20">
-        <f t="shared" ref="M18" si="10">+M14-M16+M15+M17</f>
+      <c r="Q18" s="20">
+        <f t="shared" ref="Q18" si="10">+Q14-Q16+Q15+Q17</f>
         <v>0</v>
       </c>
-      <c r="N18" s="20">
-        <f t="shared" ref="N18" si="11">+N14-N16+N15+N17</f>
+      <c r="R18" s="20">
+        <f t="shared" ref="R18" si="11">+R14-R16+R15+R17</f>
         <v>0</v>
       </c>
-      <c r="O18" s="20">
-        <f t="shared" ref="O18" si="12">+O14-O16+O15+O17</f>
+      <c r="S18" s="20">
+        <f t="shared" ref="S18" si="12">+S14-S16+S15+S17</f>
         <v>564.63799999999992</v>
       </c>
-      <c r="P18" s="20">
-        <f t="shared" ref="P18" si="13">+P14-P16+P15+P17</f>
+      <c r="T18" s="20">
+        <f t="shared" ref="T18" si="13">+T14-T16+T15+T17</f>
         <v>666.08200000000022</v>
       </c>
-      <c r="Q18" s="20">
-        <f t="shared" ref="Q18:R18" si="14">+Q14-Q16+Q15+Q17</f>
+      <c r="U18" s="20">
+        <f t="shared" ref="U18:V18" si="14">+U14-U16+U15+U17</f>
         <v>978.87799999999993</v>
       </c>
-      <c r="R18" s="20">
+      <c r="V18" s="20">
         <f t="shared" si="14"/>
         <v>1243.299</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -1794,7 +1915,9 @@
         <v>109.134</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>33.527999999999999</v>
+      </c>
       <c r="H19" s="20">
         <v>76.590999999999994</v>
       </c>
@@ -1802,24 +1925,30 @@
         <v>127.208</v>
       </c>
       <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20">
+        <v>43.863</v>
+      </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="20">
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20">
         <v>112.68899999999999</v>
       </c>
-      <c r="P19" s="20">
+      <c r="T19" s="20">
         <v>149.26</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="U19" s="20">
         <v>219.37799999999999</v>
       </c>
-      <c r="R19" s="20">
+      <c r="V19" s="20">
         <v>277.20800000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -1831,7 +1960,9 @@
         <v>0</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>-3.8</v>
+      </c>
       <c r="H20" s="20">
         <v>0</v>
       </c>
@@ -1839,30 +1970,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20">
+        <v>-8.4350000000000005</v>
+      </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="20">
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20">
         <v>-8.2119999999999997</v>
       </c>
-      <c r="P20" s="20">
+      <c r="T20" s="20">
         <v>-14.08</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="U20" s="20">
         <v>-11.698</v>
       </c>
-      <c r="R20" s="20">
+      <c r="V20" s="20">
         <f>1.584-0.505</f>
         <v>1.0790000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="20">
-        <f t="shared" ref="C21:J21" si="15">C18-C19+C20</f>
+        <f t="shared" ref="C21:K21" si="15">C18-C19+C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="20">
@@ -1879,7 +2016,7 @@
       </c>
       <c r="G21" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>111.82500000000003</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="15"/>
@@ -1893,37 +2030,44 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20">
-        <f t="shared" ref="L21:P21" si="16">L18-L19+L20</f>
+      <c r="K21" s="20">
+        <f t="shared" si="15"/>
+        <v>130.76799999999992</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20">
+        <f t="shared" ref="P21:T21" si="16">P18-P19+P20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="Q21" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N21" s="20">
+      <c r="R21" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O21" s="20">
+      <c r="S21" s="20">
         <f t="shared" si="16"/>
         <v>443.73699999999997</v>
       </c>
-      <c r="P21" s="20">
+      <c r="T21" s="20">
         <f t="shared" si="16"/>
         <v>502.74200000000025</v>
       </c>
-      <c r="Q21" s="20">
-        <f>Q18-Q19+Q20</f>
+      <c r="U21" s="20">
+        <f>U18-U19+U20</f>
         <v>747.80200000000002</v>
       </c>
-      <c r="R21" s="20">
-        <f>R18-R19+R20</f>
+      <c r="V21" s="20">
+        <f>V18-V19+V20</f>
         <v>967.16999999999985</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1939,62 +2083,73 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="3" t="e">
+      <c r="C23" s="24" t="e">
         <f t="shared" ref="C23:G23" si="17">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="24">
         <f t="shared" si="17"/>
         <v>1.1431544036673755</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="24">
         <f t="shared" si="17"/>
         <v>2.5321882001493643</v>
       </c>
-      <c r="F23" s="3" t="e">
+      <c r="F23" s="24" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="3" t="e">
+      <c r="G23" s="24">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="3">
+        <v>0.7315182478886878</v>
+      </c>
+      <c r="H23" s="24">
         <f>+H21/H24</f>
         <v>1.5917038885969519</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" ref="I23:J23" si="18">+I21/I24</f>
+      <c r="I23" s="24">
+        <f t="shared" ref="I23:K23" si="18">+I21/I24</f>
         <v>3.0083915162692665</v>
       </c>
-      <c r="J23" s="3" t="e">
+      <c r="J23" s="24" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3">
+      <c r="K23" s="24">
+        <f t="shared" si="18"/>
+        <v>0.87561602742661182</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24">
         <v>16.43</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="24">
         <v>19.5</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="24">
         <v>29.6</v>
       </c>
-      <c r="R23" s="3">
-        <f>+R21/R24</f>
+      <c r="V23" s="24">
+        <f>+V21/V24</f>
         <v>6.3632954366019261</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>65</v>
       </c>
@@ -2006,7 +2161,9 @@
         <v>153.98500000000001</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>152.86699999999999</v>
+      </c>
       <c r="H24" s="3">
         <v>152.24</v>
       </c>
@@ -2014,36 +2171,42 @@
         <v>151.82</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="e">
-        <f t="shared" ref="L24:P24" si="19">L21/L23</f>
+      <c r="K24" s="3">
+        <v>149.34399999999999</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="e">
+        <f t="shared" ref="P24:T24" si="19">P21/P23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="3" t="e">
+      <c r="Q24" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="3" t="e">
+      <c r="R24" s="3" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <f t="shared" si="19"/>
         <v>27.007729762629335</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <f t="shared" si="19"/>
         <v>25.78164102564104</v>
       </c>
-      <c r="Q24" s="3">
-        <f>Q21/Q23</f>
+      <c r="U24" s="3">
+        <f>U21/U23</f>
         <v>25.263581081081082</v>
       </c>
-      <c r="R24">
+      <c r="V24">
         <v>151.99199999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2059,8 +2222,12 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
@@ -2069,49 +2236,56 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="17" t="e">
-        <f>+G3/C3-1</f>
+        <f t="shared" ref="G26:K29" si="20">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="17">
-        <f>+H3/D3-1</f>
+        <f t="shared" si="20"/>
         <v>0.13402944841216247</v>
       </c>
       <c r="I26" s="17" t="e">
-        <f>+I3/E3-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="17" t="e">
-        <f>+J3/F3-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="17" t="e">
-        <f>M3/L3-1</f>
+      <c r="K26" s="17" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="17" t="e">
-        <f>N3/M3-1</f>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="17" t="e">
+        <f t="shared" ref="Q26:V29" si="21">Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="17" t="e">
-        <f>O3/N3-1</f>
+      <c r="R26" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="17" t="e">
-        <f>P3/O3-1</f>
+      <c r="S26" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="17">
-        <f>Q3/P3-1</f>
+      <c r="T26" s="17" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="21"/>
         <v>0.16064650263760671</v>
       </c>
-      <c r="R26" s="17">
-        <f>R3/Q3-1</f>
+      <c r="V26" s="17">
+        <f t="shared" si="21"/>
         <v>0.13050548158840125</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
@@ -2120,49 +2294,56 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="17" t="e">
-        <f>+G4/C4-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="17">
-        <f>+H4/D4-1</f>
+        <f t="shared" si="20"/>
         <v>0.37787529518239515</v>
       </c>
       <c r="I27" s="17" t="e">
-        <f>+I4/E4-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="17" t="e">
-        <f>+J4/F4-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="17" t="e">
-        <f>M4/L4-1</f>
+      <c r="K27" s="17" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="17" t="e">
-        <f>N4/M4-1</f>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="17" t="e">
-        <f>O4/N4-1</f>
+      <c r="R27" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="17" t="e">
-        <f>P4/O4-1</f>
+      <c r="S27" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="17">
-        <f>Q4/P4-1</f>
+      <c r="T27" s="17" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="21"/>
         <v>0.27873136124157427</v>
       </c>
-      <c r="R27" s="17">
-        <f>R4/Q4-1</f>
+      <c r="V27" s="17">
+        <f t="shared" si="21"/>
         <v>0.2359775064480778</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2171,49 +2352,56 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="17" t="e">
-        <f>+G5/C5-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="17">
-        <f>+H5/D5-1</f>
+        <f t="shared" si="20"/>
         <v>-1.481481481481528E-3</v>
       </c>
       <c r="I28" s="17" t="e">
-        <f>+I5/E5-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="17" t="e">
-        <f>+J5/F5-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="17" t="e">
-        <f>M5/L5-1</f>
+      <c r="K28" s="17" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="17" t="e">
-        <f>N5/M5-1</f>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="17" t="e">
-        <f>O5/N5-1</f>
+      <c r="R28" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="17" t="e">
-        <f>P5/O5-1</f>
+      <c r="S28" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="17">
-        <f>Q5/P5-1</f>
+      <c r="T28" s="17" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="21"/>
         <v>-0.18869120129355788</v>
       </c>
-      <c r="R28" s="17">
-        <f>R5/Q5-1</f>
+      <c r="V28" s="17">
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
@@ -2222,49 +2410,56 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="17" t="e">
-        <f>+G6/C6-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="17">
-        <f>+H6/D6-1</f>
+        <f t="shared" si="20"/>
         <v>-0.43175002998680578</v>
       </c>
       <c r="I29" s="17" t="e">
-        <f>+I6/E6-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="17" t="e">
-        <f>+J6/F6-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="17" t="e">
-        <f>M6/L6-1</f>
+      <c r="K29" s="17" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="17" t="e">
-        <f>N6/M6-1</f>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="17" t="e">
-        <f>O6/N6-1</f>
+      <c r="R29" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="17" t="e">
-        <f>P6/O6-1</f>
+      <c r="S29" s="17" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="17">
-        <f>Q6/P6-1</f>
+      <c r="T29" s="17" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="21"/>
         <v>-0.32968972238318495</v>
       </c>
-      <c r="R29" s="17">
-        <f>R6/Q6-1</f>
+      <c r="V29" s="17">
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
@@ -2288,298 +2483,333 @@
         <f>+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="23" t="e">
-        <f>M10/L10-1</f>
+      <c r="K30" s="23">
+        <f>+K10/G10-1</f>
+        <v>0.16864543034626656</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="23" t="e">
+        <f t="shared" ref="Q30:V30" si="22">Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="23" t="e">
-        <f>N10/M10-1</f>
+      <c r="R30" s="23" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="23" t="e">
-        <f>O10/N10-1</f>
+      <c r="S30" s="23" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="23">
-        <f>P10/O10-1</f>
+      <c r="T30" s="23">
+        <f t="shared" si="22"/>
         <v>0.15139545299728074</v>
       </c>
-      <c r="Q30" s="23">
-        <f>Q10/P10-1</f>
+      <c r="U30" s="23">
+        <f t="shared" si="22"/>
         <v>0.18208572469885187</v>
       </c>
-      <c r="R30" s="23">
-        <f>R10/Q10-1</f>
+      <c r="V30" s="23">
+        <f t="shared" si="22"/>
         <v>0.16275363167227308</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="17" t="e">
-        <f>C12/C10</f>
+        <f t="shared" ref="C31:J31" si="23">C12/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="17">
-        <f>D12/D10</f>
+        <f t="shared" si="23"/>
         <v>0.53394565654400972</v>
       </c>
       <c r="E31" s="17">
-        <f>E12/E10</f>
+        <f t="shared" si="23"/>
         <v>0.58742862782772876</v>
       </c>
       <c r="F31" s="17" t="e">
-        <f>F12/F10</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="17" t="e">
-        <f>G12/G10</f>
+      <c r="G31" s="17">
+        <f t="shared" si="23"/>
+        <v>0.56945745244121559</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="23"/>
+        <v>0.55918616356038187</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="23"/>
+        <v>0.60346109957228822</v>
+      </c>
+      <c r="J31" s="17" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="17">
-        <f>H12/H10</f>
-        <v>0.55918616356038187</v>
-      </c>
-      <c r="I31" s="17">
-        <f>I12/I10</f>
-        <v>0.60346109957228822</v>
-      </c>
-      <c r="J31" s="17" t="e">
-        <f>J12/J10</f>
+      <c r="K31" s="17">
+        <f t="shared" ref="K31" si="24">K12/K10</f>
+        <v>0.55768253816853242</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="17" t="e">
+        <f t="shared" ref="P31:V31" si="25">P12/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="17" t="e">
-        <f>L12/L10</f>
+      <c r="Q31" s="17" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="17" t="e">
-        <f>M12/M10</f>
+      <c r="R31" s="17" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="17" t="e">
-        <f>N12/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="17">
-        <f>O12/O10</f>
+      <c r="S31" s="17">
+        <f t="shared" si="25"/>
         <v>0.51027873508216104</v>
       </c>
-      <c r="P31" s="17">
-        <f>P12/P10</f>
+      <c r="T31" s="17">
+        <f t="shared" si="25"/>
         <v>0.50323299568878777</v>
       </c>
-      <c r="Q31" s="17">
-        <f>Q12/Q10</f>
+      <c r="U31" s="17">
+        <f t="shared" si="25"/>
         <v>0.55634791381893067</v>
       </c>
-      <c r="R31" s="17">
-        <f>R12/R10</f>
+      <c r="V31" s="17">
+        <f t="shared" si="25"/>
         <v>0.57879814955515996</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="17" t="e">
-        <f>C14/C10</f>
+        <f t="shared" ref="C32:J32" si="26">C14/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="17">
-        <f>D14/D10</f>
+        <f t="shared" si="26"/>
         <v>0.20571074276472268</v>
       </c>
       <c r="E32" s="17">
-        <f>E14/E10</f>
+        <f t="shared" si="26"/>
         <v>0.31269423260935186</v>
       </c>
       <c r="F32" s="17" t="e">
-        <f>F14/F10</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="17" t="e">
-        <f>G14/G10</f>
+      <c r="G32" s="17">
+        <f t="shared" si="26"/>
+        <v>0.16091050188587347</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="26"/>
+        <v>0.23265564469389621</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="26"/>
+        <v>0.31046676134886558</v>
+      </c>
+      <c r="J32" s="17" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="17">
-        <f>H14/H10</f>
-        <v>0.23265564469389621</v>
-      </c>
-      <c r="I32" s="17">
-        <f>I14/I10</f>
-        <v>0.31046676134886558</v>
-      </c>
-      <c r="J32" s="17" t="e">
-        <f>J14/J10</f>
+      <c r="K32" s="17">
+        <f t="shared" ref="K32" si="27">K14/K10</f>
+        <v>0.17136390686525563</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="17" t="e">
+        <f t="shared" ref="P32:V32" si="28">P14/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="17" t="e">
-        <f>L14/L10</f>
+      <c r="Q32" s="17" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="17" t="e">
-        <f>M14/M10</f>
+      <c r="R32" s="17" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="17" t="e">
-        <f>N14/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="17">
-        <f>O14/O10</f>
+      <c r="S32" s="17">
+        <f t="shared" si="28"/>
         <v>0.17925277247940616</v>
       </c>
-      <c r="P32" s="17">
-        <f>P14/P10</f>
+      <c r="T32" s="17">
+        <f t="shared" si="28"/>
         <v>0.17995575755537341</v>
       </c>
-      <c r="Q32" s="17">
-        <f>Q14/Q10</f>
+      <c r="U32" s="17">
+        <f t="shared" si="28"/>
         <v>0.21632282381279003</v>
       </c>
-      <c r="R32" s="17">
-        <f>R14/R10</f>
+      <c r="V32" s="17">
+        <f t="shared" si="28"/>
         <v>0.2364989493767265</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="17" t="e">
-        <f>C21/C10</f>
+        <f t="shared" ref="C33:J33" si="29">C21/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="17">
-        <f>D21/D10</f>
+        <f t="shared" si="29"/>
         <v>0.16351850478108487</v>
       </c>
       <c r="E33" s="17">
-        <f>E21/E10</f>
+        <f t="shared" si="29"/>
         <v>0.24989889810146332</v>
       </c>
       <c r="F33" s="17" t="e">
-        <f>F21/F10</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="17" t="e">
-        <f>G21/G10</f>
+      <c r="G33" s="17">
+        <f t="shared" si="29"/>
+        <v>0.13548846727497652</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="29"/>
+        <v>0.18479166031174693</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="29"/>
+        <v>0.24996866730700296</v>
+      </c>
+      <c r="J33" s="17" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="17">
-        <f>H21/H10</f>
-        <v>0.18479166031174693</v>
-      </c>
-      <c r="I33" s="17">
-        <f>I21/I10</f>
-        <v>0.24996866730700296</v>
-      </c>
-      <c r="J33" s="17" t="e">
-        <f>J21/J10</f>
+      <c r="K33" s="17">
+        <f t="shared" ref="K33" si="30">K21/K10</f>
+        <v>0.13557578861589684</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="17" t="e">
+        <f t="shared" ref="P33:V33" si="31">P21/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="17" t="e">
-        <f>L21/L10</f>
+      <c r="Q33" s="17" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="17" t="e">
-        <f>M21/M10</f>
+      <c r="R33" s="17" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="17" t="e">
-        <f>N21/N10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="17">
-        <f>O21/O10</f>
+      <c r="S33" s="17">
+        <f t="shared" si="31"/>
         <v>0.1408537303445756</v>
       </c>
-      <c r="P33" s="17">
-        <f>P21/P10</f>
+      <c r="T33" s="17">
+        <f t="shared" si="31"/>
         <v>0.13860004422038963</v>
       </c>
-      <c r="Q33" s="17">
-        <f>Q21/Q10</f>
+      <c r="U33" s="17">
+        <f t="shared" si="31"/>
         <v>0.17440376252138937</v>
       </c>
-      <c r="R33" s="17">
-        <f>R21/R10</f>
+      <c r="V33" s="17">
+        <f t="shared" si="31"/>
         <v>0.19399223204693825</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="17" t="e">
-        <f>C19/C18</f>
+        <f t="shared" ref="C34:J34" si="32">C19/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="17">
-        <f>D19/D18</f>
+        <f t="shared" si="32"/>
         <v>0.23801089976399492</v>
       </c>
       <c r="E34" s="17">
-        <f>E19/E18</f>
+        <f t="shared" si="32"/>
         <v>0.21868218405660322</v>
       </c>
       <c r="F34" s="17" t="e">
-        <f>F19/F18</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="17" t="e">
-        <f>G19/G18</f>
+      <c r="G34" s="17">
+        <f t="shared" si="32"/>
+        <v>0.22478931030552515</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="32"/>
+        <v>0.24016343066425846</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="32"/>
+        <v>0.21784355295560176</v>
+      </c>
+      <c r="J34" s="17" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="17">
-        <f>H19/H18</f>
-        <v>0.24016343066425846</v>
-      </c>
-      <c r="I34" s="17">
-        <f>I19/I18</f>
-        <v>0.21784355295560176</v>
-      </c>
-      <c r="J34" s="17" t="e">
-        <f>J19/J18</f>
+      <c r="K34" s="17">
+        <f t="shared" ref="K34" si="33">K19/K18</f>
+        <v>0.23960211071416876</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="17" t="e">
+        <f t="shared" ref="P34:V34" si="34">P19/P18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="17" t="e">
-        <f>L19/L18</f>
+      <c r="Q34" s="17" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="17" t="e">
-        <f>M19/M18</f>
+      <c r="R34" s="17" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="17" t="e">
-        <f>N19/N18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="17">
-        <f>O19/O18</f>
+      <c r="S34" s="17">
+        <f t="shared" si="34"/>
         <v>0.19957742837003534</v>
       </c>
-      <c r="P34" s="17">
-        <f>P19/P18</f>
+      <c r="T34" s="17">
+        <f t="shared" si="34"/>
         <v>0.22408652388144393</v>
       </c>
-      <c r="Q34" s="17">
-        <f>Q19/Q18</f>
+      <c r="U34" s="17">
+        <f t="shared" si="34"/>
         <v>0.22411168705395362</v>
       </c>
-      <c r="R34" s="17">
-        <f>R19/R18</f>
+      <c r="V34" s="17">
+        <f t="shared" si="34"/>
         <v>0.22296165282848296</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2595,8 +2825,12 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2612,8 +2846,12 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -2630,14 +2868,18 @@
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
-      <c r="P37" s="20">
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20">
         <v>981.79499999999996</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="U37" s="20">
         <v>1502.0509999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -2654,14 +2896,18 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
-      <c r="P38" s="20">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20">
         <v>301.51100000000002</v>
       </c>
-      <c r="Q38" s="20">
+      <c r="U38" s="20">
         <v>296.565</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -2678,14 +2924,18 @@
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="20">
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20">
         <v>532.85199999999998</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="U39" s="20">
         <v>474.31099999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -2702,14 +2952,18 @@
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
-      <c r="P40" s="20">
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20">
         <v>33.787999999999997</v>
       </c>
-      <c r="Q40" s="20">
+      <c r="U40" s="20">
         <v>34.283999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>71</v>
       </c>
@@ -2726,14 +2980,18 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="20">
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20">
         <v>55.523000000000003</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="U41" s="20">
         <v>92.712999999999994</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>72</v>
       </c>
@@ -2750,52 +3008,60 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20">
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20">
         <v>4.7839999999999998</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="U42" s="20">
         <v>43.558999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25">
-        <f t="shared" ref="L43:P43" si="20">SUM(L37:L42)</f>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20">
+        <f t="shared" ref="P43:T43" si="35">SUM(P37:P42)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="25">
-        <f t="shared" si="20"/>
+      <c r="Q43" s="20">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N43" s="25">
-        <f t="shared" si="20"/>
+      <c r="R43" s="20">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O43" s="25">
-        <f t="shared" si="20"/>
+      <c r="S43" s="20">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="P43" s="25">
-        <f t="shared" si="20"/>
+      <c r="T43" s="20">
+        <f t="shared" si="35"/>
         <v>1910.2529999999999</v>
       </c>
-      <c r="Q43" s="25">
-        <f>SUM(Q37:Q42)</f>
+      <c r="U43" s="20">
+        <f>SUM(U37:U42)</f>
         <v>2443.4830000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>73</v>
       </c>
@@ -2812,14 +3078,18 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
-      <c r="P44" s="20">
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20">
         <v>266.67899999999997</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="U44" s="20">
         <v>302.12200000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>74</v>
       </c>
@@ -2836,14 +3106,18 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
-      <c r="P45" s="20">
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20">
         <v>213.30199999999999</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="U45" s="20">
         <v>225.66900000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -2860,14 +3134,18 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
-      <c r="P46" s="20">
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20">
         <v>13.99</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="U46" s="20">
         <v>13.99</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>76</v>
       </c>
@@ -2884,14 +3162,18 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
-      <c r="P47" s="20">
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20">
         <v>37.457000000000001</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="U47" s="20">
         <v>27.082999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>77</v>
       </c>
@@ -2908,14 +3190,18 @@
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
-      <c r="P48" s="20">
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20">
         <v>72.591999999999999</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="U48" s="20">
         <v>72.584000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>71</v>
       </c>
@@ -2932,14 +3218,18 @@
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
-      <c r="P49" s="20">
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20">
         <v>41.93</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="U49" s="20">
         <v>50.648000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>78</v>
       </c>
@@ -2952,32 +3242,36 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="22">
-        <f t="shared" ref="L50:P50" si="21">SUM(L44:L49)+L43</f>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="22">
+        <f t="shared" ref="P50:T50" si="36">SUM(P44:P49)+P43</f>
         <v>0</v>
       </c>
-      <c r="M50" s="22">
-        <f t="shared" si="21"/>
+      <c r="Q50" s="22">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="N50" s="22">
-        <f t="shared" si="21"/>
+      <c r="R50" s="22">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O50" s="22">
-        <f t="shared" si="21"/>
+      <c r="S50" s="22">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="P50" s="22">
-        <f t="shared" si="21"/>
+      <c r="T50" s="22">
+        <f t="shared" si="36"/>
         <v>2556.203</v>
       </c>
-      <c r="Q50" s="22">
-        <f>SUM(Q44:Q49)+Q43</f>
+      <c r="U50" s="22">
+        <f>SUM(U44:U49)+U43</f>
         <v>3135.5790000000006</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>79</v>
       </c>
@@ -2994,14 +3288,18 @@
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
-      <c r="P51" s="20">
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20">
         <v>265.60500000000002</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="U51" s="20">
         <v>378.50299999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>80</v>
       </c>
@@ -3018,14 +3316,18 @@
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
-      <c r="P52" s="20">
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20">
         <v>63.780999999999999</v>
       </c>
-      <c r="Q52" s="20">
+      <c r="U52" s="20">
         <v>123.65300000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>81</v>
       </c>
@@ -3042,14 +3344,18 @@
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
-      <c r="P53" s="20">
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20">
         <v>50.765000000000001</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="U53" s="20">
         <v>53.581000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>82</v>
       </c>
@@ -3066,14 +3372,18 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
-      <c r="P54" s="20">
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20">
         <v>86.753</v>
       </c>
-      <c r="Q54" s="20">
+      <c r="U54" s="20">
         <v>106.785</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>83</v>
       </c>
@@ -3090,14 +3400,18 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
-      <c r="P55" s="20">
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20">
         <v>17.321999999999999</v>
       </c>
-      <c r="Q55" s="20">
+      <c r="U55" s="20">
         <v>52.338000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>84</v>
       </c>
@@ -3114,52 +3428,60 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
-      <c r="P56" s="20">
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20">
         <v>13.154</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="U56" s="20">
         <v>5.133</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25">
-        <f t="shared" ref="L57:P57" si="22">SUM(L51:L56)</f>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20">
+        <f t="shared" ref="P57:T57" si="37">SUM(P51:P56)</f>
         <v>0</v>
       </c>
-      <c r="M57" s="25">
-        <f t="shared" si="22"/>
+      <c r="Q57" s="20">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="N57" s="25">
-        <f t="shared" si="22"/>
+      <c r="R57" s="20">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="O57" s="25">
-        <f t="shared" si="22"/>
+      <c r="S57" s="20">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="P57" s="25">
-        <f t="shared" si="22"/>
+      <c r="T57" s="20">
+        <f t="shared" si="37"/>
         <v>497.38</v>
       </c>
-      <c r="Q57" s="25">
-        <f>SUM(Q51:Q56)</f>
+      <c r="U57" s="20">
+        <f>SUM(U51:U56)</f>
         <v>719.99299999999994</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>86</v>
       </c>
@@ -3176,14 +3498,18 @@
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
-      <c r="P58" s="20">
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20">
         <v>195.72300000000001</v>
       </c>
-      <c r="Q58" s="20">
+      <c r="U58" s="20">
         <v>213.298</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>87</v>
       </c>
@@ -3200,14 +3526,18 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
       <c r="O59" s="20"/>
-      <c r="P59" s="20">
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20">
         <v>62.031999999999996</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="U59" s="20">
         <v>52.47</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>38</v>
       </c>
@@ -3224,14 +3554,18 @@
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
-      <c r="P60" s="20">
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20">
         <v>35.335000000000001</v>
       </c>
-      <c r="Q60" s="20">
+      <c r="U60" s="20">
         <v>42.35</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>88</v>
       </c>
@@ -3244,32 +3578,36 @@
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="22">
-        <f t="shared" ref="L61:P61" si="23">SUM(L58:L60)+L57</f>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="22">
+        <f t="shared" ref="P61:T61" si="38">SUM(P58:P60)+P57</f>
         <v>0</v>
       </c>
-      <c r="M61" s="22">
-        <f t="shared" si="23"/>
+      <c r="Q61" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N61" s="22">
-        <f t="shared" si="23"/>
+      <c r="R61" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O61" s="22">
-        <f t="shared" si="23"/>
+      <c r="S61" s="22">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="P61" s="22">
-        <f t="shared" si="23"/>
+      <c r="T61" s="22">
+        <f t="shared" si="38"/>
         <v>790.47</v>
       </c>
-      <c r="Q61" s="22">
-        <f>SUM(Q58:Q60)+Q57</f>
+      <c r="U61" s="22">
+        <f>SUM(U58:U60)+U57</f>
         <v>1028.1109999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>89</v>
       </c>
@@ -3286,14 +3624,18 @@
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
-      <c r="P62" s="20">
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20">
         <v>0.26300000000000001</v>
       </c>
-      <c r="Q62" s="20">
+      <c r="U62" s="20">
         <v>0.255</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>90</v>
       </c>
@@ -3310,14 +3652,18 @@
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
-      <c r="P63" s="20">
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20">
         <v>232.93199999999999</v>
       </c>
-      <c r="Q63" s="20">
+      <c r="U63" s="20">
         <v>245.149</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>91</v>
       </c>
@@ -3334,14 +3680,18 @@
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
-      <c r="P64" s="20">
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20">
         <v>1571.5740000000001</v>
       </c>
-      <c r="Q64" s="20">
+      <c r="U64" s="20">
         <v>1912.797</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>92</v>
       </c>
@@ -3358,46 +3708,54 @@
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
-      <c r="P65" s="20">
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20">
         <v>-39.034999999999997</v>
       </c>
-      <c r="Q65" s="20">
+      <c r="U65" s="20">
         <v>-50.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="24" t="s">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20">
         <v>0</v>
       </c>
-      <c r="M66" s="25">
+      <c r="Q66" s="20">
         <v>0</v>
       </c>
-      <c r="N66" s="25">
+      <c r="R66" s="20">
         <v>0</v>
       </c>
-      <c r="O66" s="25">
+      <c r="S66" s="20">
         <v>0</v>
       </c>
-      <c r="P66" s="25">
+      <c r="T66" s="20">
         <v>1765.7339999999999</v>
       </c>
-      <c r="Q66" s="25">
+      <c r="U66" s="20">
         <v>2107.4679999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>94</v>
       </c>
@@ -3410,32 +3768,36 @@
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="22">
-        <f>L66+L61</f>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="22">
+        <f t="shared" ref="P67:U67" si="39">P66+P61</f>
         <v>0</v>
       </c>
-      <c r="M67" s="22">
-        <f>M66+M61</f>
+      <c r="Q67" s="22">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N67" s="22">
-        <f>N66+N61</f>
+      <c r="R67" s="22">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O67" s="22">
-        <f>O66+O61</f>
+      <c r="S67" s="22">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="P67" s="22">
-        <f>P66+P61</f>
+      <c r="T67" s="22">
+        <f t="shared" si="39"/>
         <v>2556.2039999999997</v>
       </c>
-      <c r="Q67" s="22">
-        <f>Q66+Q61</f>
+      <c r="U67" s="22">
+        <f t="shared" si="39"/>
         <v>3135.5789999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -3451,8 +3813,12 @@
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
       <c r="Q68" s="20"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
@@ -3468,8 +3834,12 @@
       <c r="O69" s="20"/>
       <c r="P69" s="20"/>
       <c r="Q69" s="20"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>63</v>
       </c>
@@ -3482,32 +3852,36 @@
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
-      <c r="L70" s="20">
-        <f t="shared" ref="L70:P70" si="24">L18-L19</f>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20">
+        <f t="shared" ref="P70:T70" si="40">P18-P19</f>
         <v>0</v>
       </c>
-      <c r="M70" s="20">
-        <f t="shared" si="24"/>
+      <c r="Q70" s="20">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="N70" s="20">
-        <f t="shared" si="24"/>
+      <c r="R70" s="20">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="O70" s="20">
-        <f t="shared" si="24"/>
+      <c r="S70" s="20">
+        <f t="shared" si="40"/>
         <v>451.94899999999996</v>
       </c>
-      <c r="P70" s="20">
-        <f t="shared" si="24"/>
+      <c r="T70" s="20">
+        <f t="shared" si="40"/>
         <v>516.82200000000023</v>
       </c>
-      <c r="Q70" s="20">
-        <f>Q18-Q19</f>
+      <c r="U70" s="20">
+        <f>U18-U19</f>
         <v>759.5</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>95</v>
       </c>
@@ -3526,8 +3900,12 @@
       <c r="O71" s="20"/>
       <c r="P71" s="20"/>
       <c r="Q71" s="20"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>103</v>
       </c>
@@ -3546,8 +3924,12 @@
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
       <c r="Q72" s="20"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>104</v>
       </c>
@@ -3566,8 +3948,12 @@
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="20"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>105</v>
       </c>
@@ -3586,8 +3972,12 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3603,8 +3993,12 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3620,8 +4014,12 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3637,8 +4035,12 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3654,8 +4056,12 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3671,8 +4077,12 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3688,8 +4098,12 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3705,8 +4119,12 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3722,8 +4140,12 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3739,8 +4161,12 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3756,8 +4182,12 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3773,8 +4203,12 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3790,8 +4224,12 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3807,8 +4245,12 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3824,8 +4266,12 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3841,8 +4287,12 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3858,8 +4308,12 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3875,8 +4329,12 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3892,8 +4350,12 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3909,8 +4371,12 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3926,8 +4392,12 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3943,8 +4413,12 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3960,8 +4434,12 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3977,8 +4455,12 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3994,8 +4476,12 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4011,8 +4497,12 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4028,8 +4518,12 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4045,8 +4539,12 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4062,8 +4560,12 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+    </row>
+    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4079,8 +4581,12 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+    </row>
+    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4096,8 +4602,12 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+    </row>
+    <row r="105" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4113,8 +4623,12 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+    </row>
+    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4130,8 +4644,12 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+    </row>
+    <row r="107" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4147,8 +4665,12 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+    </row>
+    <row r="108" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4164,8 +4686,12 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+    </row>
+    <row r="109" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4181,8 +4707,12 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+    </row>
+    <row r="110" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4198,8 +4728,12 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+    </row>
+    <row r="111" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4215,8 +4749,12 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+    </row>
+    <row r="112" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4232,8 +4770,12 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+    </row>
+    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4249,8 +4791,12 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+    </row>
+    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4266,8 +4812,12 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-    </row>
-    <row r="115" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+    </row>
+    <row r="115" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4283,8 +4833,12 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-    </row>
-    <row r="116" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+    </row>
+    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4300,8 +4854,12 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-    </row>
-    <row r="117" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+    </row>
+    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4317,8 +4875,12 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+    </row>
+    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4334,8 +4896,12 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+    </row>
+    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4351,8 +4917,12 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-    </row>
-    <row r="120" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+    </row>
+    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4368,8 +4938,12 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-    </row>
-    <row r="121" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+    </row>
+    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4385,8 +4959,12 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-    </row>
-    <row r="122" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+    </row>
+    <row r="122" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4402,8 +4980,12 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-    </row>
-    <row r="123" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+    </row>
+    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4419,8 +5001,12 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-    </row>
-    <row r="124" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+    </row>
+    <row r="124" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4436,8 +5022,12 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-    </row>
-    <row r="125" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+    </row>
+    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4453,8 +5043,12 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-    </row>
-    <row r="126" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+    </row>
+    <row r="126" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4470,8 +5064,12 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-    </row>
-    <row r="127" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+    </row>
+    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4487,8 +5085,12 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-    </row>
-    <row r="128" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+    </row>
+    <row r="128" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4504,8 +5106,12 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+    </row>
+    <row r="129" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4521,8 +5127,12 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+    </row>
+    <row r="130" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4538,8 +5148,12 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+    </row>
+    <row r="131" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -4555,8 +5169,12 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-    </row>
-    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+    </row>
+    <row r="132" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4572,8 +5190,12 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-    </row>
-    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+    </row>
+    <row r="133" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4589,8 +5211,12 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-    </row>
-    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+    </row>
+    <row r="134" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4606,8 +5232,12 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
-    </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+    </row>
+    <row r="135" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4623,8 +5253,12 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
-    </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+    </row>
+    <row r="136" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4640,8 +5274,12 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-    </row>
-    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+    </row>
+    <row r="137" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4657,8 +5295,12 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-    </row>
-    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+    </row>
+    <row r="138" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4674,8 +5316,12 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
-    </row>
-    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+    </row>
+    <row r="139" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4691,8 +5337,12 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-    </row>
-    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+    </row>
+    <row r="140" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4708,8 +5358,12 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
-    </row>
-    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+    </row>
+    <row r="141" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4725,8 +5379,12 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+    </row>
+    <row r="142" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4742,8 +5400,12 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+    </row>
+    <row r="143" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4759,8 +5421,12 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-    </row>
-    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+    </row>
+    <row r="144" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4776,8 +5442,12 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
-    </row>
-    <row r="145" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+    </row>
+    <row r="145" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4793,8 +5463,12 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
-    </row>
-    <row r="146" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+    </row>
+    <row r="146" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4810,8 +5484,12 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-    </row>
-    <row r="147" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+    </row>
+    <row r="147" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4827,8 +5505,12 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-    </row>
-    <row r="148" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+    </row>
+    <row r="148" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -4844,8 +5526,12 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
-    </row>
-    <row r="149" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+    </row>
+    <row r="149" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4861,8 +5547,12 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
-    </row>
-    <row r="150" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+    </row>
+    <row r="150" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4878,8 +5568,12 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
-    </row>
-    <row r="151" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+    </row>
+    <row r="151" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4895,8 +5589,12 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-    </row>
-    <row r="152" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+    </row>
+    <row r="152" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4912,8 +5610,12 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-    </row>
-    <row r="153" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+    </row>
+    <row r="153" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4929,8 +5631,12 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
-    </row>
-    <row r="154" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+    </row>
+    <row r="154" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4946,8 +5652,12 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
-    </row>
-    <row r="155" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+    </row>
+    <row r="155" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4963,8 +5673,12 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-    </row>
-    <row r="156" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+    </row>
+    <row r="156" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4980,8 +5694,12 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-    </row>
-    <row r="157" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+    </row>
+    <row r="157" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4997,8 +5715,12 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
-    </row>
-    <row r="158" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+    </row>
+    <row r="158" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5014,8 +5736,12 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-    </row>
-    <row r="159" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+    </row>
+    <row r="159" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5031,8 +5757,12 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
-    </row>
-    <row r="160" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+    </row>
+    <row r="160" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5048,8 +5778,12 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
-    </row>
-    <row r="161" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+    </row>
+    <row r="161" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5065,8 +5799,12 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-    </row>
-    <row r="162" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+    </row>
+    <row r="162" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5082,8 +5820,12 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-    </row>
-    <row r="163" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+    </row>
+    <row r="163" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5099,8 +5841,12 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
-    </row>
-    <row r="164" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+    </row>
+    <row r="164" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5116,8 +5862,12 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-    </row>
-    <row r="165" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+    </row>
+    <row r="165" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5133,8 +5883,12 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+    </row>
+    <row r="166" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -5150,8 +5904,12 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+    </row>
+    <row r="167" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -5167,8 +5925,12 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-    </row>
-    <row r="168" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+    </row>
+    <row r="168" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -5184,8 +5946,12 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-    </row>
-    <row r="169" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+    </row>
+    <row r="169" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -5201,8 +5967,12 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
-    </row>
-    <row r="170" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+    </row>
+    <row r="170" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -5218,8 +5988,12 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-    </row>
-    <row r="171" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+    </row>
+    <row r="171" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -5235,8 +6009,12 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-    </row>
-    <row r="172" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+    </row>
+    <row r="172" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -5252,8 +6030,12 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
-    </row>
-    <row r="173" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+    </row>
+    <row r="173" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -5269,8 +6051,12 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-    </row>
-    <row r="174" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+    </row>
+    <row r="174" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -5286,8 +6072,12 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
-    </row>
-    <row r="175" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+    </row>
+    <row r="175" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -5303,8 +6093,12 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
-    </row>
-    <row r="176" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+    </row>
+    <row r="176" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -5320,8 +6114,12 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
-    </row>
-    <row r="177" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+    </row>
+    <row r="177" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -5337,8 +6135,12 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
-    </row>
-    <row r="178" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+    </row>
+    <row r="178" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -5354,8 +6156,12 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
-    </row>
-    <row r="179" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+    </row>
+    <row r="179" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -5371,8 +6177,12 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
-    </row>
-    <row r="180" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3"/>
+    </row>
+    <row r="180" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -5388,8 +6198,12 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
-    </row>
-    <row r="181" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+    </row>
+    <row r="181" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -5405,8 +6219,12 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
-    </row>
-    <row r="182" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+    </row>
+    <row r="182" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -5422,8 +6240,12 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
-    </row>
-    <row r="183" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+    </row>
+    <row r="183" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -5439,8 +6261,12 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
-    </row>
-    <row r="184" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+    </row>
+    <row r="184" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -5456,8 +6282,12 @@
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
-    </row>
-    <row r="185" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+    </row>
+    <row r="185" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -5473,8 +6303,12 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
-    </row>
-    <row r="186" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+    </row>
+    <row r="186" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -5490,8 +6324,12 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
-    </row>
-    <row r="187" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+    </row>
+    <row r="187" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -5507,8 +6345,12 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
-    </row>
-    <row r="188" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+    </row>
+    <row r="188" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -5524,8 +6366,12 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
-    </row>
-    <row r="189" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+    </row>
+    <row r="189" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -5541,8 +6387,12 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
-    </row>
-    <row r="190" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+    </row>
+    <row r="190" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -5558,8 +6408,12 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+    </row>
+    <row r="191" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -5575,8 +6429,12 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
-    </row>
-    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+    </row>
+    <row r="192" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -5592,8 +6450,12 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
-    </row>
-    <row r="193" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+    </row>
+    <row r="193" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -5609,8 +6471,12 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
-    </row>
-    <row r="194" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+    </row>
+    <row r="194" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -5626,8 +6492,12 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
-    </row>
-    <row r="195" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+    </row>
+    <row r="195" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -5643,8 +6513,12 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
-    </row>
-    <row r="196" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+    </row>
+    <row r="196" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -5660,8 +6534,12 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
-    </row>
-    <row r="197" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+    </row>
+    <row r="197" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -5677,8 +6555,12 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
-    </row>
-    <row r="198" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+    </row>
+    <row r="198" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -5694,8 +6576,12 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
-    </row>
-    <row r="199" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+    </row>
+    <row r="199" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -5711,8 +6597,12 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
-    </row>
-    <row r="200" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+    </row>
+    <row r="200" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -5728,8 +6618,12 @@
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
-    </row>
-    <row r="201" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+    </row>
+    <row r="201" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -5745,8 +6639,12 @@
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
-    </row>
-    <row r="202" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+    </row>
+    <row r="202" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -5762,8 +6660,12 @@
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
-    </row>
-    <row r="203" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+    </row>
+    <row r="203" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -5779,8 +6681,12 @@
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
-    </row>
-    <row r="204" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+    </row>
+    <row r="204" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -5796,6 +6702,10 @@
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DECK.xlsx
+++ b/DECK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFBAFC-EA22-4B91-96F1-B1F75D141F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84E928-7EBD-41EF-B1F8-6B2E21B4FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +391,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -415,12 +413,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,36 +542,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -899,196 +911,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C395AD81-88EE-407E-AFB3-8F4FE0F8204A}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5">
         <v>149.43587500000001</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>45536</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <f>M3*M2</f>
         <v>17782.869125000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>45382</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>1720.4159999999999</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <f>M4-M5+M6</f>
         <v>16062.453125000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="13">
         <v>0.52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>0.42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <v>0.03</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <v>0.01</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>0.02</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="12"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1104,318 +1119,319 @@
   <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19">
         <v>451.84100000000001</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19">
         <v>512.40099999999995</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19">
         <v>1929.211</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="19">
         <v>2239.1320000000001</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="20">
         <v>2531.3510000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19">
         <v>262.97300000000001</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19">
         <v>362.34399999999999</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19">
         <v>1412.9159999999999</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="19">
         <v>1806.74</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="20">
         <v>2233.09</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
         <v>12.15</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
         <v>12.132</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19">
         <v>183.06100000000001</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="19">
         <v>148.51900000000001</v>
       </c>
-      <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="V5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
         <v>3.3348</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19">
         <v>1.895</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19">
         <v>37.966000000000001</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="19">
         <v>25.449000000000002</v>
       </c>
-      <c r="V6" s="21"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <v>29.861999999999998</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>24.881</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19">
         <v>64.132000000000005</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="19">
         <v>67.923000000000002</v>
       </c>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20">
         <v>2855.8649999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
         <v>331.733</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
         <v>397.66699999999997</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="20">
         <v>2129.7469999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="22"/>
@@ -1459,615 +1475,615 @@
         <v>4985.6120000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <v>508.88799999999998</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>643.73800000000006</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>355.34699999999998</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>578.048</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>724.54200000000003</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19">
         <v>426.63200000000001</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19">
         <v>1542.788</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="19">
         <v>1801.9159999999999</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="19">
         <v>1902.2750000000001</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="19">
         <v>2099.9490000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f t="shared" ref="C12:K12" si="0">C10-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>583.01900000000001</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>916.56899999999996</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>733.27199999999993</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="0"/>
         <v>1102.623</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <f t="shared" si="0"/>
         <v>537.90599999999995</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19">
         <f t="shared" ref="P12:T12" si="1">P10-P11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="19">
         <f t="shared" si="1"/>
         <v>1607.5509999999999</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="19">
         <f t="shared" si="1"/>
         <v>1825.3700000000001</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="19">
         <f>U10-U11</f>
         <v>2385.4879999999998</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="19">
         <f>V10-V11</f>
         <v>2885.663</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <v>358.40199999999999</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>428.67</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <v>337.19299999999998</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>428.18599999999998</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>535.34900000000005</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19">
         <v>372.61900000000003</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19">
         <v>1042.8440000000001</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="19">
         <v>1172.6189999999999</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="19">
         <v>1457.9469999999999</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="19">
         <v>1706.5709999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <f t="shared" ref="C14" si="2">C12-C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" ref="D14" si="3">D12-D13</f>
         <v>224.61700000000002</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" ref="E14" si="4">E12-E13</f>
         <v>487.89899999999994</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" ref="F14:K14" si="5">F12-F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="5"/>
         <v>132.80700000000002</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="5"/>
         <v>305.08599999999996</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="5"/>
         <v>567.274</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f t="shared" si="5"/>
         <v>165.28699999999992</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19">
         <f t="shared" ref="P14:T14" si="6">P12-P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <f t="shared" si="6"/>
         <v>564.70699999999988</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <f t="shared" si="6"/>
         <v>652.7510000000002</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="19">
         <f>U12-U13</f>
         <v>927.54099999999994</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="19">
         <f>V12-V13</f>
         <v>1179.0920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <v>10.089</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>11.154</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <v>16.346</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>14.797000000000001</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>16.667999999999999</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19">
         <v>17.779</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19">
         <v>1.901</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="19">
         <v>15.563000000000001</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="19">
         <v>52.207999999999998</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="19">
         <v>68.388999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <v>1.0109999999999999</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>0</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>1.151</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>0</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19">
         <v>2.0830000000000002</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="19">
         <v>3.4420000000000002</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="19">
         <v>2.6539999999999999</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="19">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>0.622</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.18</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20">
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19">
         <v>0.113</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="19">
         <v>1.21</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="19">
         <v>1.7829999999999999</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="19">
         <v>-0.66500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f t="shared" ref="C18:G18" si="7">+C14-C16+C15+C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" si="7"/>
         <v>234.31700000000004</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="7"/>
         <v>499.05299999999994</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="7"/>
         <v>149.15300000000002</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>+H14-H16+H15+H17</f>
         <v>318.91199999999998</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" ref="I18:K18" si="8">+I14-I16+I15+I17</f>
         <v>583.94200000000001</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f t="shared" si="8"/>
         <v>183.06599999999992</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20">
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19">
         <f t="shared" ref="P18" si="9">+P14-P16+P15+P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <f t="shared" ref="Q18" si="10">+Q14-Q16+Q15+Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <f t="shared" ref="R18" si="11">+R14-R16+R15+R17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="19">
         <f t="shared" ref="S18" si="12">+S14-S16+S15+S17</f>
         <v>564.63799999999992</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="19">
         <f t="shared" ref="T18" si="13">+T14-T16+T15+T17</f>
         <v>666.08200000000022</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="19">
         <f t="shared" ref="U18:V18" si="14">+U14-U16+U15+U17</f>
         <v>978.87799999999993</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="19">
         <f t="shared" si="14"/>
         <v>1243.299</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
         <v>55.77</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>109.134</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
         <v>33.527999999999999</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>76.590999999999994</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>127.208</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19">
         <v>43.863</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20">
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19">
         <v>112.68899999999999</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="19">
         <v>149.26</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="19">
         <v>219.37799999999999</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="19">
         <v>277.20800000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19">
         <v>0</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
         <v>-3.8</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>0</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>0</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19">
         <v>-8.4350000000000005</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19">
         <v>-8.2119999999999997</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="19">
         <v>-14.08</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="19">
         <v>-11.698</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="19">
         <f>1.584-0.505</f>
         <v>1.0790000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" ref="C21:K21" si="15">C18-C19+C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f t="shared" si="15"/>
         <v>178.54700000000003</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <f t="shared" si="15"/>
         <v>389.91899999999993</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <f t="shared" si="15"/>
         <v>111.82500000000003</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f t="shared" si="15"/>
         <v>242.32099999999997</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <f t="shared" si="15"/>
         <v>456.73400000000004</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f t="shared" si="15"/>
         <v>130.76799999999992</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19">
         <f t="shared" ref="P21:T21" si="16">P18-P19+P20</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="19">
         <f t="shared" si="16"/>
         <v>443.73699999999997</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="19">
         <f t="shared" si="16"/>
         <v>502.74200000000025</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="19">
         <f>U18-U19+U20</f>
         <v>747.80200000000002</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="19">
         <f>V18-V19+V20</f>
         <v>967.16999999999985</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2088,69 +2104,69 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="24" t="e">
+      <c r="C23" s="23" t="e">
         <f t="shared" ref="C23:G23" si="17">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <f t="shared" si="17"/>
         <v>1.1431544036673755</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <f t="shared" si="17"/>
         <v>2.5321882001493643</v>
       </c>
-      <c r="F23" s="24" t="e">
+      <c r="F23" s="23" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <f t="shared" si="17"/>
         <v>0.7315182478886878</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <f>+H21/H24</f>
         <v>1.5917038885969519</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="23">
         <f t="shared" ref="I23:K23" si="18">+I21/I24</f>
         <v>3.0083915162692665</v>
       </c>
-      <c r="J23" s="24" t="e">
+      <c r="J23" s="23" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="23">
         <f t="shared" si="18"/>
         <v>0.87561602742661182</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23">
         <v>16.43</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="23">
         <v>19.5</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="23">
         <v>29.6</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="23">
         <f>+V21/V24</f>
         <v>6.3632954366019261</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="3"/>
@@ -2202,11 +2218,11 @@
         <f>U21/U23</f>
         <v>25.263581081081082</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="2">
         <v>151.99199999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2227,7 +2243,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
@@ -2235,57 +2251,57 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="17" t="e">
+      <c r="G26" s="24" t="e">
         <f t="shared" ref="G26:K29" si="20">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="24">
         <f t="shared" si="20"/>
         <v>0.13402944841216247</v>
       </c>
-      <c r="I26" s="17" t="e">
+      <c r="I26" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="17" t="e">
+      <c r="J26" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="17" t="e">
+      <c r="K26" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="17" t="e">
+      <c r="Q26" s="24" t="e">
         <f t="shared" ref="Q26:V29" si="21">Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="17" t="e">
+      <c r="R26" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="17" t="e">
+      <c r="S26" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T26" s="17" t="e">
+      <c r="T26" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="24">
         <f t="shared" si="21"/>
         <v>0.16064650263760671</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="24">
         <f t="shared" si="21"/>
         <v>0.13050548158840125</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
@@ -2293,57 +2309,57 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="17" t="e">
+      <c r="G27" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="24">
         <f t="shared" si="20"/>
         <v>0.37787529518239515</v>
       </c>
-      <c r="I27" s="17" t="e">
+      <c r="I27" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="17" t="e">
+      <c r="J27" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="17" t="e">
+      <c r="K27" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="17" t="e">
+      <c r="Q27" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R27" s="17" t="e">
+      <c r="R27" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="17" t="e">
+      <c r="S27" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="17" t="e">
+      <c r="T27" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="24">
         <f t="shared" si="21"/>
         <v>0.27873136124157427</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="24">
         <f t="shared" si="21"/>
         <v>0.2359775064480778</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2351,57 +2367,57 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="17" t="e">
+      <c r="G28" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="24">
         <f t="shared" si="20"/>
         <v>-1.481481481481528E-3</v>
       </c>
-      <c r="I28" s="17" t="e">
+      <c r="I28" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="17" t="e">
+      <c r="J28" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="17" t="e">
+      <c r="K28" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="17" t="e">
+      <c r="Q28" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="17" t="e">
+      <c r="R28" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="17" t="e">
+      <c r="S28" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T28" s="17" t="e">
+      <c r="T28" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="24">
         <f t="shared" si="21"/>
         <v>-0.18869120129355788</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="24">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
@@ -2409,407 +2425,407 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="17" t="e">
+      <c r="G29" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="24">
         <f t="shared" si="20"/>
         <v>-0.43175002998680578</v>
       </c>
-      <c r="I29" s="17" t="e">
+      <c r="I29" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="17" t="e">
+      <c r="J29" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="17" t="e">
+      <c r="K29" s="24" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="17" t="e">
+      <c r="Q29" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="17" t="e">
+      <c r="R29" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="17" t="e">
+      <c r="S29" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T29" s="17" t="e">
+      <c r="T29" s="24" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="17">
+      <c r="U29" s="24">
         <f t="shared" si="21"/>
         <v>-0.32968972238318495</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="24">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="23" t="e">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25" t="e">
         <f>+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="25">
         <f>+H10/D10-1</f>
         <v>0.20094476910579373</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="25">
         <f>+I10/E10-1</f>
         <v>0.17102916285064418</v>
       </c>
-      <c r="J30" s="23" t="e">
+      <c r="J30" s="25" t="e">
         <f>+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="25">
         <f>+K10/G10-1</f>
         <v>0.16864543034626656</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="23" t="e">
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="25" t="e">
         <f t="shared" ref="Q30:V30" si="22">Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="23" t="e">
+      <c r="R30" s="25" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="23" t="e">
+      <c r="S30" s="25" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="23">
+      <c r="T30" s="25">
         <f t="shared" si="22"/>
         <v>0.15139545299728074</v>
       </c>
-      <c r="U30" s="23">
+      <c r="U30" s="25">
         <f t="shared" si="22"/>
         <v>0.18208572469885187</v>
       </c>
-      <c r="V30" s="23">
+      <c r="V30" s="25">
         <f t="shared" si="22"/>
         <v>0.16275363167227308</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="17" t="e">
+      <c r="C31" s="24" t="e">
         <f t="shared" ref="C31:J31" si="23">C12/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="24">
         <f t="shared" si="23"/>
         <v>0.53394565654400972</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="24">
         <f t="shared" si="23"/>
         <v>0.58742862782772876</v>
       </c>
-      <c r="F31" s="17" t="e">
+      <c r="F31" s="24" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="24">
         <f t="shared" si="23"/>
         <v>0.56945745244121559</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="24">
         <f t="shared" si="23"/>
         <v>0.55918616356038187</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="24">
         <f t="shared" si="23"/>
         <v>0.60346109957228822</v>
       </c>
-      <c r="J31" s="17" t="e">
+      <c r="J31" s="24" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="24">
         <f t="shared" ref="K31" si="24">K12/K10</f>
         <v>0.55768253816853242</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="17" t="e">
+      <c r="P31" s="24" t="e">
         <f t="shared" ref="P31:V31" si="25">P12/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="17" t="e">
+      <c r="Q31" s="24" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="17" t="e">
+      <c r="R31" s="24" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="24">
         <f t="shared" si="25"/>
         <v>0.51027873508216104</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="24">
         <f t="shared" si="25"/>
         <v>0.50323299568878777</v>
       </c>
-      <c r="U31" s="17">
+      <c r="U31" s="24">
         <f t="shared" si="25"/>
         <v>0.55634791381893067</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="24">
         <f t="shared" si="25"/>
         <v>0.57879814955515996</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="17" t="e">
+      <c r="C32" s="24" t="e">
         <f t="shared" ref="C32:J32" si="26">C14/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="24">
         <f t="shared" si="26"/>
         <v>0.20571074276472268</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="24">
         <f t="shared" si="26"/>
         <v>0.31269423260935186</v>
       </c>
-      <c r="F32" s="17" t="e">
+      <c r="F32" s="24" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="24">
         <f t="shared" si="26"/>
         <v>0.16091050188587347</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="24">
         <f t="shared" si="26"/>
         <v>0.23265564469389621</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="24">
         <f t="shared" si="26"/>
         <v>0.31046676134886558</v>
       </c>
-      <c r="J32" s="17" t="e">
+      <c r="J32" s="24" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="24">
         <f t="shared" ref="K32" si="27">K14/K10</f>
         <v>0.17136390686525563</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="17" t="e">
+      <c r="P32" s="24" t="e">
         <f t="shared" ref="P32:V32" si="28">P14/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="17" t="e">
+      <c r="Q32" s="24" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="17" t="e">
+      <c r="R32" s="24" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="24">
         <f t="shared" si="28"/>
         <v>0.17925277247940616</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="24">
         <f t="shared" si="28"/>
         <v>0.17995575755537341</v>
       </c>
-      <c r="U32" s="17">
+      <c r="U32" s="24">
         <f t="shared" si="28"/>
         <v>0.21632282381279003</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="24">
         <f t="shared" si="28"/>
         <v>0.2364989493767265</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="17" t="e">
+      <c r="C33" s="24" t="e">
         <f t="shared" ref="C33:J33" si="29">C21/C10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="24">
         <f t="shared" si="29"/>
         <v>0.16351850478108487</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="24">
         <f t="shared" si="29"/>
         <v>0.24989889810146332</v>
       </c>
-      <c r="F33" s="17" t="e">
+      <c r="F33" s="24" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="24">
         <f t="shared" si="29"/>
         <v>0.13548846727497652</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="24">
         <f t="shared" si="29"/>
         <v>0.18479166031174693</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="24">
         <f t="shared" si="29"/>
         <v>0.24996866730700296</v>
       </c>
-      <c r="J33" s="17" t="e">
+      <c r="J33" s="24" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="24">
         <f t="shared" ref="K33" si="30">K21/K10</f>
         <v>0.13557578861589684</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="17" t="e">
+      <c r="P33" s="24" t="e">
         <f t="shared" ref="P33:V33" si="31">P21/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q33" s="17" t="e">
+      <c r="Q33" s="24" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="17" t="e">
+      <c r="R33" s="24" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="24">
         <f t="shared" si="31"/>
         <v>0.1408537303445756</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="24">
         <f t="shared" si="31"/>
         <v>0.13860004422038963</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U33" s="24">
         <f t="shared" si="31"/>
         <v>0.17440376252138937</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V33" s="24">
         <f t="shared" si="31"/>
         <v>0.19399223204693825</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="17" t="e">
+      <c r="C34" s="24" t="e">
         <f t="shared" ref="C34:J34" si="32">C19/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="24">
         <f t="shared" si="32"/>
         <v>0.23801089976399492</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="24">
         <f t="shared" si="32"/>
         <v>0.21868218405660322</v>
       </c>
-      <c r="F34" s="17" t="e">
+      <c r="F34" s="24" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="24">
         <f t="shared" si="32"/>
         <v>0.22478931030552515</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="24">
         <f t="shared" si="32"/>
         <v>0.24016343066425846</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="24">
         <f t="shared" si="32"/>
         <v>0.21784355295560176</v>
       </c>
-      <c r="J34" s="17" t="e">
+      <c r="J34" s="24" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="24">
         <f t="shared" ref="K34" si="33">K19/K18</f>
         <v>0.23960211071416876</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="17" t="e">
+      <c r="P34" s="24" t="e">
         <f t="shared" ref="P34:V34" si="34">P19/P18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q34" s="17" t="e">
+      <c r="Q34" s="24" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="17" t="e">
+      <c r="R34" s="24" t="e">
         <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="24">
         <f t="shared" si="34"/>
         <v>0.19957742837003534</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="24">
         <f t="shared" si="34"/>
         <v>0.22408652388144393</v>
       </c>
-      <c r="U34" s="17">
+      <c r="U34" s="24">
         <f t="shared" si="34"/>
         <v>0.22411168705395362</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V34" s="24">
         <f t="shared" si="34"/>
         <v>0.22296165282848296</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2830,7 +2846,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2851,401 +2867,401 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19">
         <v>981.79499999999996</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="19">
         <v>1502.0509999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19">
         <v>301.51100000000002</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U38" s="19">
         <v>296.565</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19">
         <v>532.85199999999998</v>
       </c>
-      <c r="U39" s="20">
+      <c r="U39" s="19">
         <v>474.31099999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19">
         <v>33.787999999999997</v>
       </c>
-      <c r="U40" s="20">
+      <c r="U40" s="19">
         <v>34.283999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19">
         <v>55.523000000000003</v>
       </c>
-      <c r="U41" s="20">
+      <c r="U41" s="19">
         <v>92.712999999999994</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19">
         <v>4.7839999999999998</v>
       </c>
-      <c r="U42" s="20">
+      <c r="U42" s="19">
         <v>43.558999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19">
         <f t="shared" ref="P43:T43" si="35">SUM(P37:P42)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="19">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="19">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="19">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="T43" s="20">
+      <c r="T43" s="19">
         <f t="shared" si="35"/>
         <v>1910.2529999999999</v>
       </c>
-      <c r="U43" s="20">
+      <c r="U43" s="19">
         <f>SUM(U37:U42)</f>
         <v>2443.4830000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19">
         <v>266.67899999999997</v>
       </c>
-      <c r="U44" s="20">
+      <c r="U44" s="19">
         <v>302.12200000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19">
         <v>213.30199999999999</v>
       </c>
-      <c r="U45" s="20">
+      <c r="U45" s="19">
         <v>225.66900000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19">
         <v>13.99</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="19">
         <v>13.99</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19">
         <v>37.457000000000001</v>
       </c>
-      <c r="U47" s="20">
+      <c r="U47" s="19">
         <v>27.082999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19">
         <v>72.591999999999999</v>
       </c>
-      <c r="U48" s="20">
+      <c r="U48" s="19">
         <v>72.584000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19">
         <v>41.93</v>
       </c>
-      <c r="U49" s="20">
+      <c r="U49" s="19">
         <v>50.648000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="22">
         <f t="shared" ref="P50:T50" si="36">SUM(P44:P49)+P43</f>
         <v>0</v>
@@ -3271,317 +3287,317 @@
         <v>3135.5790000000006</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19">
         <v>265.60500000000002</v>
       </c>
-      <c r="U51" s="20">
+      <c r="U51" s="19">
         <v>378.50299999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19">
         <v>63.780999999999999</v>
       </c>
-      <c r="U52" s="20">
+      <c r="U52" s="19">
         <v>123.65300000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19">
         <v>50.765000000000001</v>
       </c>
-      <c r="U53" s="20">
+      <c r="U53" s="19">
         <v>53.581000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19">
         <v>86.753</v>
       </c>
-      <c r="U54" s="20">
+      <c r="U54" s="19">
         <v>106.785</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19">
         <v>17.321999999999999</v>
       </c>
-      <c r="U55" s="20">
+      <c r="U55" s="19">
         <v>52.338000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19">
         <v>13.154</v>
       </c>
-      <c r="U56" s="20">
+      <c r="U56" s="19">
         <v>5.133</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19">
         <f t="shared" ref="P57:T57" si="37">SUM(P51:P56)</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="Q57" s="19">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="19">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="S57" s="20">
+      <c r="S57" s="19">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="T57" s="20">
+      <c r="T57" s="19">
         <f t="shared" si="37"/>
         <v>497.38</v>
       </c>
-      <c r="U57" s="20">
+      <c r="U57" s="19">
         <f>SUM(U51:U56)</f>
         <v>719.99299999999994</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19">
         <v>195.72300000000001</v>
       </c>
-      <c r="U58" s="20">
+      <c r="U58" s="19">
         <v>213.298</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19">
         <v>62.031999999999996</v>
       </c>
-      <c r="U59" s="20">
+      <c r="U59" s="19">
         <v>52.47</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19">
         <v>35.335000000000001</v>
       </c>
-      <c r="U60" s="20">
+      <c r="U60" s="19">
         <v>42.35</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="22">
         <f t="shared" ref="P61:T61" si="38">SUM(P58:P60)+P57</f>
         <v>0</v>
@@ -3607,171 +3623,171 @@
         <v>1028.1109999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19">
         <v>0.26300000000000001</v>
       </c>
-      <c r="U62" s="20">
+      <c r="U62" s="19">
         <v>0.255</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19">
         <v>232.93199999999999</v>
       </c>
-      <c r="U63" s="20">
+      <c r="U63" s="19">
         <v>245.149</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19">
         <v>1571.5740000000001</v>
       </c>
-      <c r="U64" s="20">
+      <c r="U64" s="19">
         <v>1912.797</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19">
         <v>-39.034999999999997</v>
       </c>
-      <c r="U65" s="20">
+      <c r="U65" s="19">
         <v>-50.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19">
         <v>0</v>
       </c>
-      <c r="Q66" s="20">
+      <c r="Q66" s="19">
         <v>0</v>
       </c>
-      <c r="R66" s="20">
+      <c r="R66" s="19">
         <v>0</v>
       </c>
-      <c r="S66" s="20">
+      <c r="S66" s="19">
         <v>0</v>
       </c>
-      <c r="T66" s="20">
+      <c r="T66" s="19">
         <v>1765.7339999999999</v>
       </c>
-      <c r="U66" s="20">
+      <c r="U66" s="19">
         <v>2107.4679999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
       <c r="P67" s="22">
         <f t="shared" ref="P67:U67" si="39">P66+P61</f>
         <v>0</v>
@@ -3797,164 +3813,164 @@
         <v>3135.5789999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19">
         <f t="shared" ref="P70:T70" si="40">P18-P19</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="20">
+      <c r="Q70" s="19">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="19">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="S70" s="20">
+      <c r="S70" s="19">
         <f t="shared" si="40"/>
         <v>451.94899999999996</v>
       </c>
-      <c r="T70" s="20">
+      <c r="T70" s="19">
         <f t="shared" si="40"/>
         <v>516.82200000000023</v>
       </c>
-      <c r="U70" s="20">
+      <c r="U70" s="19">
         <f>U18-U19</f>
         <v>759.5</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C74" s="3"/>
@@ -3977,7 +3993,7 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3998,7 +4014,7 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4019,7 +4035,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4040,7 +4056,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4061,7 +4077,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4082,7 +4098,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4103,7 +4119,7 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4124,7 +4140,7 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4145,7 +4161,7 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
     </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4166,7 +4182,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4187,7 +4203,7 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
     </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4208,7 +4224,7 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
     </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4229,7 +4245,7 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
     </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4250,7 +4266,7 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
     </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4271,7 +4287,7 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
     </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4292,7 +4308,7 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4313,7 +4329,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
     </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4334,7 +4350,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4355,7 +4371,7 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
     </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4376,7 +4392,7 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
     </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4397,7 +4413,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4418,7 +4434,7 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
     </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4439,7 +4455,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4460,7 +4476,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
     </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4481,7 +4497,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
     </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4502,7 +4518,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
     </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4523,7 +4539,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4544,7 +4560,7 @@
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4565,7 +4581,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
     </row>
-    <row r="103" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4586,7 +4602,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
     </row>
-    <row r="104" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4607,7 +4623,7 @@
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
     </row>
-    <row r="105" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4628,7 +4644,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
     </row>
-    <row r="106" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4649,7 +4665,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
     </row>
-    <row r="107" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4670,7 +4686,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
     </row>
-    <row r="108" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4691,7 +4707,7 @@
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
     </row>
-    <row r="109" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4712,7 +4728,7 @@
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
     </row>
-    <row r="110" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4733,7 +4749,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
     </row>
-    <row r="111" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4754,7 +4770,7 @@
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
     </row>
-    <row r="112" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4775,7 +4791,7 @@
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
     </row>
-    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4796,7 +4812,7 @@
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
     </row>
-    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4817,7 +4833,7 @@
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
     </row>
-    <row r="115" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4838,7 +4854,7 @@
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
     </row>
-    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4859,7 +4875,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
     </row>
-    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4880,7 +4896,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
     </row>
-    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4901,7 +4917,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
     </row>
-    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4922,7 +4938,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
     </row>
-    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4943,7 +4959,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
     </row>
-    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4964,7 +4980,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
     </row>
-    <row r="122" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4985,7 +5001,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
     </row>
-    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5006,7 +5022,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
     </row>
-    <row r="124" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5027,7 +5043,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
     </row>
-    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5048,7 +5064,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
     </row>
-    <row r="126" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -5069,7 +5085,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
     </row>
-    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -5090,7 +5106,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
     </row>
-    <row r="128" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -5111,7 +5127,7 @@
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
     </row>
-    <row r="129" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -5132,7 +5148,7 @@
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
     </row>
-    <row r="130" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5153,7 +5169,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
     </row>
-    <row r="131" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5174,7 +5190,7 @@
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
     </row>
-    <row r="132" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5195,7 +5211,7 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
     </row>
-    <row r="133" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5216,7 +5232,7 @@
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
     </row>
-    <row r="134" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -5237,7 +5253,7 @@
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
     </row>
-    <row r="135" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -5258,7 +5274,7 @@
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
     </row>
-    <row r="136" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -5279,7 +5295,7 @@
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
     </row>
-    <row r="137" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -5300,7 +5316,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
     </row>
-    <row r="138" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -5321,7 +5337,7 @@
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
     </row>
-    <row r="139" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -5342,7 +5358,7 @@
       <c r="T139" s="3"/>
       <c r="U139" s="3"/>
     </row>
-    <row r="140" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5363,7 +5379,7 @@
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
     </row>
-    <row r="141" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5384,7 +5400,7 @@
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
     </row>
-    <row r="142" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5405,7 +5421,7 @@
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
     </row>
-    <row r="143" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5426,7 +5442,7 @@
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
     </row>
-    <row r="144" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5447,7 +5463,7 @@
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
     </row>
-    <row r="145" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5468,7 +5484,7 @@
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
     </row>
-    <row r="146" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5489,7 +5505,7 @@
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
     </row>
-    <row r="147" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5510,7 +5526,7 @@
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
     </row>
-    <row r="148" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5531,7 +5547,7 @@
       <c r="T148" s="3"/>
       <c r="U148" s="3"/>
     </row>
-    <row r="149" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5552,7 +5568,7 @@
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
     </row>
-    <row r="150" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5573,7 +5589,7 @@
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
     </row>
-    <row r="151" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5594,7 +5610,7 @@
       <c r="T151" s="3"/>
       <c r="U151" s="3"/>
     </row>
-    <row r="152" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5615,7 +5631,7 @@
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
     </row>
-    <row r="153" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5636,7 +5652,7 @@
       <c r="T153" s="3"/>
       <c r="U153" s="3"/>
     </row>
-    <row r="154" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5657,7 +5673,7 @@
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
     </row>
-    <row r="155" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5678,7 +5694,7 @@
       <c r="T155" s="3"/>
       <c r="U155" s="3"/>
     </row>
-    <row r="156" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5699,7 +5715,7 @@
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
     </row>
-    <row r="157" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5720,7 +5736,7 @@
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
     </row>
-    <row r="158" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5741,7 +5757,7 @@
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
     </row>
-    <row r="159" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5762,7 +5778,7 @@
       <c r="T159" s="3"/>
       <c r="U159" s="3"/>
     </row>
-    <row r="160" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5783,7 +5799,7 @@
       <c r="T160" s="3"/>
       <c r="U160" s="3"/>
     </row>
-    <row r="161" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5804,7 +5820,7 @@
       <c r="T161" s="3"/>
       <c r="U161" s="3"/>
     </row>
-    <row r="162" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5825,7 +5841,7 @@
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
     </row>
-    <row r="163" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5846,7 +5862,7 @@
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
     </row>
-    <row r="164" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5867,7 +5883,7 @@
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
     </row>
-    <row r="165" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5888,7 +5904,7 @@
       <c r="T165" s="3"/>
       <c r="U165" s="3"/>
     </row>
-    <row r="166" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -5909,7 +5925,7 @@
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
     </row>
-    <row r="167" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -5930,7 +5946,7 @@
       <c r="T167" s="3"/>
       <c r="U167" s="3"/>
     </row>
-    <row r="168" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -5951,7 +5967,7 @@
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
     </row>
-    <row r="169" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -5972,7 +5988,7 @@
       <c r="T169" s="3"/>
       <c r="U169" s="3"/>
     </row>
-    <row r="170" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -5993,7 +6009,7 @@
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
     </row>
-    <row r="171" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6014,7 +6030,7 @@
       <c r="T171" s="3"/>
       <c r="U171" s="3"/>
     </row>
-    <row r="172" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6035,7 +6051,7 @@
       <c r="T172" s="3"/>
       <c r="U172" s="3"/>
     </row>
-    <row r="173" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6056,7 +6072,7 @@
       <c r="T173" s="3"/>
       <c r="U173" s="3"/>
     </row>
-    <row r="174" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6077,7 +6093,7 @@
       <c r="T174" s="3"/>
       <c r="U174" s="3"/>
     </row>
-    <row r="175" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6098,7 +6114,7 @@
       <c r="T175" s="3"/>
       <c r="U175" s="3"/>
     </row>
-    <row r="176" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6119,7 +6135,7 @@
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
     </row>
-    <row r="177" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6140,7 +6156,7 @@
       <c r="T177" s="3"/>
       <c r="U177" s="3"/>
     </row>
-    <row r="178" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6161,7 +6177,7 @@
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
     </row>
-    <row r="179" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -6182,7 +6198,7 @@
       <c r="T179" s="3"/>
       <c r="U179" s="3"/>
     </row>
-    <row r="180" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -6203,7 +6219,7 @@
       <c r="T180" s="3"/>
       <c r="U180" s="3"/>
     </row>
-    <row r="181" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -6224,7 +6240,7 @@
       <c r="T181" s="3"/>
       <c r="U181" s="3"/>
     </row>
-    <row r="182" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -6245,7 +6261,7 @@
       <c r="T182" s="3"/>
       <c r="U182" s="3"/>
     </row>
-    <row r="183" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -6266,7 +6282,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
     </row>
-    <row r="184" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -6287,7 +6303,7 @@
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
     </row>
-    <row r="185" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -6308,7 +6324,7 @@
       <c r="T185" s="3"/>
       <c r="U185" s="3"/>
     </row>
-    <row r="186" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -6329,7 +6345,7 @@
       <c r="T186" s="3"/>
       <c r="U186" s="3"/>
     </row>
-    <row r="187" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -6350,7 +6366,7 @@
       <c r="T187" s="3"/>
       <c r="U187" s="3"/>
     </row>
-    <row r="188" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -6371,7 +6387,7 @@
       <c r="T188" s="3"/>
       <c r="U188" s="3"/>
     </row>
-    <row r="189" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -6392,7 +6408,7 @@
       <c r="T189" s="3"/>
       <c r="U189" s="3"/>
     </row>
-    <row r="190" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -6413,7 +6429,7 @@
       <c r="T190" s="3"/>
       <c r="U190" s="3"/>
     </row>
-    <row r="191" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -6434,7 +6450,7 @@
       <c r="T191" s="3"/>
       <c r="U191" s="3"/>
     </row>
-    <row r="192" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -6455,7 +6471,7 @@
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
     </row>
-    <row r="193" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -6476,7 +6492,7 @@
       <c r="T193" s="3"/>
       <c r="U193" s="3"/>
     </row>
-    <row r="194" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -6497,7 +6513,7 @@
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
     </row>
-    <row r="195" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -6518,7 +6534,7 @@
       <c r="T195" s="3"/>
       <c r="U195" s="3"/>
     </row>
-    <row r="196" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -6539,7 +6555,7 @@
       <c r="T196" s="3"/>
       <c r="U196" s="3"/>
     </row>
-    <row r="197" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -6560,7 +6576,7 @@
       <c r="T197" s="3"/>
       <c r="U197" s="3"/>
     </row>
-    <row r="198" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -6581,7 +6597,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
     </row>
-    <row r="199" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -6602,7 +6618,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
     </row>
-    <row r="200" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -6623,7 +6639,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
     </row>
-    <row r="201" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -6644,7 +6660,7 @@
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
     </row>
-    <row r="202" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -6665,7 +6681,7 @@
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
     </row>
-    <row r="203" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -6686,7 +6702,7 @@
       <c r="T203" s="3"/>
       <c r="U203" s="3"/>
     </row>
-    <row r="204" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>

--- a/DECK.xlsx
+++ b/DECK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84E928-7EBD-41EF-B1F8-6B2E21B4FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E668B1AC-3F5D-459D-AE68-FD95816DBA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -382,13 +382,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -539,40 +545,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -911,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C395AD81-88EE-407E-AFB3-8F4FE0F8204A}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>119</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -951,8 +960,8 @@
       <c r="M3" s="5">
         <v>149.43587500000001</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>107</v>
+      <c r="N3" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -970,7 +979,7 @@
       </c>
       <c r="M4" s="5">
         <f>M3*M2</f>
-        <v>17782.869125000001</v>
+        <v>13030.808300000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -984,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="5">
-        <v>1720.4159999999999</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>107</v>
+        <v>1414.479</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -997,8 +1006,8 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>107</v>
+      <c r="N6" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1010,7 +1019,7 @@
       </c>
       <c r="M7" s="5">
         <f>M4-M5+M6</f>
-        <v>16062.453125000002</v>
+        <v>11616.329300000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1118,11 +1127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E627EB27-452B-48DD-8092-5ECA5113EA18}">
   <dimension ref="A1:V204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1464,9 @@
       <c r="K10" s="22">
         <v>964.53800000000001</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22">
+        <v>1430.84</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -1500,7 +1511,9 @@
       <c r="K11" s="19">
         <v>426.63200000000001</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="19">
+        <v>627.01800000000003</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
@@ -1525,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" ref="C12:K12" si="0">C10-C11</f>
+        <f t="shared" ref="C12:L12" si="0">C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="19">
@@ -1560,7 +1573,10 @@
         <f t="shared" si="0"/>
         <v>537.90599999999995</v>
       </c>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19">
+        <f t="shared" si="0"/>
+        <v>803.82199999999989</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -1618,7 +1634,9 @@
       <c r="K13" s="19">
         <v>372.61900000000003</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="19">
+        <v>477.30099999999999</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -1655,7 +1673,7 @@
         <v>487.89899999999994</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" ref="F14:K14" si="5">F12-F13</f>
+        <f t="shared" ref="F14:L14" si="5">F12-F13</f>
         <v>0</v>
       </c>
       <c r="G14" s="19">
@@ -1678,7 +1696,10 @@
         <f t="shared" si="5"/>
         <v>165.28699999999992</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="19">
+        <f t="shared" si="5"/>
+        <v>326.5209999999999</v>
+      </c>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -1736,7 +1757,9 @@
       <c r="K15" s="19">
         <v>17.779</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19">
+        <v>15.835000000000001</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -1781,7 +1804,9 @@
       <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -1826,7 +1851,9 @@
       <c r="K17" s="19">
         <v>0</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -1875,7 +1902,7 @@
         <v>318.91199999999998</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" ref="I18:K18" si="8">+I14-I16+I15+I17</f>
+        <f t="shared" ref="I18:L18" si="8">+I14-I16+I15+I17</f>
         <v>583.94200000000001</v>
       </c>
       <c r="J18" s="19">
@@ -1886,7 +1913,10 @@
         <f t="shared" si="8"/>
         <v>183.06599999999992</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="19">
+        <f t="shared" si="8"/>
+        <v>342.35599999999988</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -1944,7 +1974,9 @@
       <c r="K19" s="19">
         <v>43.863</v>
       </c>
-      <c r="L19" s="19"/>
+      <c r="L19" s="19">
+        <v>74.203999999999994</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -1989,7 +2021,9 @@
       <c r="K20" s="19">
         <v>-8.4350000000000005</v>
       </c>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19">
+        <v>8.9779999999999998</v>
+      </c>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -2015,7 +2049,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" ref="C21:K21" si="15">C18-C19+C20</f>
+        <f t="shared" ref="C21:L21" si="15">C18-C19+C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="19">
@@ -2050,7 +2084,10 @@
         <f t="shared" si="15"/>
         <v>130.76799999999992</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="19">
+        <f t="shared" si="15"/>
+        <v>277.12999999999988</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -2133,7 +2170,7 @@
         <v>1.5917038885969519</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" ref="I23:K23" si="18">+I21/I24</f>
+        <f t="shared" ref="I23:L23" si="18">+I21/I24</f>
         <v>3.0083915162692665</v>
       </c>
       <c r="J23" s="23" t="e">
@@ -2144,7 +2181,10 @@
         <f t="shared" si="18"/>
         <v>0.87561602742661182</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="23">
+        <f t="shared" si="18"/>
+        <v>1.8801858950439287</v>
+      </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
@@ -2190,7 +2230,9 @@
       <c r="K24" s="3">
         <v>149.34399999999999</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>147.39500000000001</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2252,7 +2294,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="24" t="e">
-        <f t="shared" ref="G26:K29" si="20">+G3/C3-1</f>
+        <f t="shared" ref="G26:L29" si="20">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="24">
@@ -2271,7 +2313,10 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="3"/>
@@ -2329,7 +2374,10 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="3"/>
@@ -2387,7 +2435,10 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
       <c r="O28" s="3"/>
@@ -2445,7 +2496,10 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="24">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="3"/>
@@ -2503,7 +2557,10 @@
         <f>+K10/G10-1</f>
         <v>0.16864543034626656</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="25">
+        <f>+L10/H10-1</f>
+        <v>9.1144800658877978E-2</v>
+      </c>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="21"/>
@@ -2570,10 +2627,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="24">
-        <f t="shared" ref="K31" si="24">K12/K10</f>
+        <f t="shared" ref="K31:L31" si="24">K12/K10</f>
         <v>0.55768253816853242</v>
       </c>
-      <c r="L31" s="24"/>
+      <c r="L31" s="24">
+        <f t="shared" si="24"/>
+        <v>0.56178328813843614</v>
+      </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="3"/>
@@ -2643,10 +2703,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" ref="K32" si="27">K14/K10</f>
+        <f t="shared" ref="K32:L32" si="27">K14/K10</f>
         <v>0.17136390686525563</v>
       </c>
-      <c r="L32" s="24"/>
+      <c r="L32" s="24">
+        <f t="shared" si="27"/>
+        <v>0.2282023147242179</v>
+      </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="3"/>
@@ -2716,10 +2779,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="24">
-        <f t="shared" ref="K33" si="30">K21/K10</f>
+        <f t="shared" ref="K33:L33" si="30">K21/K10</f>
         <v>0.13557578861589684</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="24">
+        <f t="shared" si="30"/>
+        <v>0.19368343071202923</v>
+      </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="3"/>
@@ -2789,10 +2855,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" ref="K34" si="33">K19/K18</f>
+        <f t="shared" ref="K34:L34" si="33">K19/K18</f>
         <v>0.23960211071416876</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="24">
+        <f t="shared" si="33"/>
+        <v>0.2167451424832631</v>
+      </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="3"/>

--- a/DECK.xlsx
+++ b/DECK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E668B1AC-3F5D-459D-AE68-FD95816DBA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298A61E-99E9-4CD1-8B89-173BEFB11231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{32EF9E8E-5778-4FD9-8E72-014E2CEE3192}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>87.2</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="M3" s="5">
-        <v>149.43587500000001</v>
+        <v>141.94997100000001</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
       </c>
       <c r="M4" s="5">
         <f>M3*M2</f>
-        <v>13030.808300000001</v>
+        <v>16366.831656300001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -993,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="M5" s="5">
-        <v>1414.479</v>
+        <v>2086.7460000000001</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="M7" s="5">
         <f>M4-M5+M6</f>
-        <v>11616.329300000001</v>
+        <v>14280.085656300002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1128,10 +1128,10 @@
   <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1224,9 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="M3" s="19">
+        <v>1305.4749999999999</v>
+      </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -1260,7 +1262,9 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="M4" s="19">
+        <v>628.88199999999995</v>
+      </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -1296,7 +1300,9 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -1330,7 +1336,9 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -1364,7 +1372,9 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="19">
+        <v>23.192</v>
+      </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -1394,7 +1404,9 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="19">
+        <v>864.57</v>
+      </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -1426,7 +1438,9 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="19">
+        <v>1092.979</v>
+      </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -1467,7 +1481,9 @@
       <c r="L10" s="22">
         <v>1430.84</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22">
+        <v>1957.549</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -1514,7 +1530,9 @@
       <c r="L11" s="19">
         <v>627.01800000000003</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="19">
+        <v>786.18899999999996</v>
+      </c>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -1538,7 +1556,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" ref="C12:L12" si="0">C10-C11</f>
+        <f t="shared" ref="C12:M12" si="0">C10-C11</f>
         <v>0</v>
       </c>
       <c r="D12" s="19">
@@ -1577,7 +1595,10 @@
         <f t="shared" si="0"/>
         <v>803.82199999999989</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="19">
+        <f t="shared" si="0"/>
+        <v>1171.3600000000001</v>
+      </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19">
@@ -1637,7 +1658,9 @@
       <c r="L13" s="19">
         <v>477.30099999999999</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="19">
+        <v>556.99400000000003</v>
+      </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -1673,7 +1696,7 @@
         <v>487.89899999999994</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" ref="F14:L14" si="5">F12-F13</f>
+        <f t="shared" ref="F14:M14" si="5">F12-F13</f>
         <v>0</v>
       </c>
       <c r="G14" s="19">
@@ -1700,7 +1723,10 @@
         <f t="shared" si="5"/>
         <v>326.5209999999999</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="19">
+        <f t="shared" si="5"/>
+        <v>614.3660000000001</v>
+      </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19">
@@ -1760,7 +1786,9 @@
       <c r="L15" s="19">
         <v>15.835000000000001</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="19">
+        <v>13.523</v>
+      </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
@@ -1807,7 +1835,9 @@
       <c r="L16" s="19">
         <v>0</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19">
+        <v>1.069</v>
+      </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -1854,7 +1884,9 @@
       <c r="L17" s="19">
         <v>0</v>
       </c>
-      <c r="M17" s="19"/>
+      <c r="M17" s="19">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
@@ -1902,7 +1934,7 @@
         <v>318.91199999999998</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" ref="I18:L18" si="8">+I14-I16+I15+I17</f>
+        <f t="shared" ref="I18:M18" si="8">+I14-I16+I15+I17</f>
         <v>583.94200000000001</v>
       </c>
       <c r="J18" s="19">
@@ -1917,7 +1949,10 @@
         <f t="shared" si="8"/>
         <v>342.35599999999988</v>
       </c>
-      <c r="M18" s="19"/>
+      <c r="M18" s="19">
+        <f t="shared" si="8"/>
+        <v>626.91100000000017</v>
+      </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19">
@@ -1977,7 +2012,9 @@
       <c r="L19" s="19">
         <v>74.203999999999994</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="19">
+        <v>145.768</v>
+      </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
@@ -2024,7 +2061,9 @@
       <c r="L20" s="19">
         <v>8.9779999999999998</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -2049,7 +2088,7 @@
         <v>63</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" ref="C21:L21" si="15">C18-C19+C20</f>
+        <f t="shared" ref="C21:M21" si="15">C18-C19+C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="19">
@@ -2088,7 +2127,10 @@
         <f t="shared" si="15"/>
         <v>277.12999999999988</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="19">
+        <f t="shared" si="15"/>
+        <v>481.14300000000014</v>
+      </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19">
@@ -2170,7 +2212,7 @@
         <v>1.5917038885969519</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" ref="I23:L23" si="18">+I21/I24</f>
+        <f t="shared" ref="I23:M23" si="18">+I21/I24</f>
         <v>3.0083915162692665</v>
       </c>
       <c r="J23" s="23" t="e">
@@ -2185,7 +2227,10 @@
         <f t="shared" si="18"/>
         <v>1.8801858950439287</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="23">
+        <f t="shared" si="18"/>
+        <v>3.3396473936280988</v>
+      </c>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
@@ -2233,7 +2278,9 @@
       <c r="L24" s="3">
         <v>147.39500000000001</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>144.07</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="e">
@@ -2538,27 +2585,27 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="25" t="e">
-        <f>+G10/C10-1</f>
+        <f t="shared" ref="G30:L30" si="22">+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="25">
-        <f>+H10/D10-1</f>
+        <f t="shared" si="22"/>
         <v>0.20094476910579373</v>
       </c>
       <c r="I30" s="25">
-        <f>+I10/E10-1</f>
+        <f t="shared" si="22"/>
         <v>0.17102916285064418</v>
       </c>
       <c r="J30" s="25" t="e">
-        <f>+J10/F10-1</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="25">
-        <f>+K10/G10-1</f>
+        <f t="shared" si="22"/>
         <v>0.16864543034626656</v>
       </c>
       <c r="L30" s="25">
-        <f>+L10/H10-1</f>
+        <f t="shared" si="22"/>
         <v>9.1144800658877978E-2</v>
       </c>
       <c r="M30" s="25"/>
@@ -2566,27 +2613,27 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="25" t="e">
-        <f t="shared" ref="Q30:V30" si="22">Q10/P10-1</f>
+        <f t="shared" ref="Q30:V30" si="23">Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15139545299728074</v>
       </c>
       <c r="U30" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.18208572469885187</v>
       </c>
       <c r="V30" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.16275363167227308</v>
       </c>
     </row>
@@ -2595,74 +2642,74 @@
         <v>53</v>
       </c>
       <c r="C31" s="24" t="e">
-        <f t="shared" ref="C31:J31" si="23">C12/C10</f>
+        <f t="shared" ref="C31:J31" si="24">C12/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.53394565654400972</v>
       </c>
       <c r="E31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.58742862782772876</v>
       </c>
       <c r="F31" s="24" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.56945745244121559</v>
       </c>
       <c r="H31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.55918616356038187</v>
       </c>
       <c r="I31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.60346109957228822</v>
       </c>
       <c r="J31" s="24" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="24">
-        <f t="shared" ref="K31:L31" si="24">K12/K10</f>
+        <f t="shared" ref="K31:L31" si="25">K12/K10</f>
         <v>0.55768253816853242</v>
       </c>
       <c r="L31" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.56178328813843614</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
       <c r="O31" s="3"/>
       <c r="P31" s="24" t="e">
-        <f t="shared" ref="P31:V31" si="25">P12/P10</f>
+        <f t="shared" ref="P31:V31" si="26">P12/P10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="24" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="24" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.51027873508216104</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.50323299568878777</v>
       </c>
       <c r="U31" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.55634791381893067</v>
       </c>
       <c r="V31" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.57879814955515996</v>
       </c>
     </row>
@@ -2671,74 +2718,74 @@
         <v>54</v>
       </c>
       <c r="C32" s="24" t="e">
-        <f t="shared" ref="C32:J32" si="26">C14/C10</f>
+        <f t="shared" ref="C32:J32" si="27">C14/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.20571074276472268</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.31269423260935186</v>
       </c>
       <c r="F32" s="24" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.16091050188587347</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.23265564469389621</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.31046676134886558</v>
       </c>
       <c r="J32" s="24" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" ref="K32:L32" si="27">K14/K10</f>
+        <f t="shared" ref="K32:L32" si="28">K14/K10</f>
         <v>0.17136390686525563</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.2282023147242179</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="3"/>
       <c r="P32" s="24" t="e">
-        <f t="shared" ref="P32:V32" si="28">P14/P10</f>
+        <f t="shared" ref="P32:V32" si="29">P14/P10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="24" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="24" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17925277247940616</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17995575755537341</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.21632282381279003</v>
       </c>
       <c r="V32" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.2364989493767265</v>
       </c>
     </row>
@@ -2747,74 +2794,74 @@
         <v>55</v>
       </c>
       <c r="C33" s="24" t="e">
-        <f t="shared" ref="C33:J33" si="29">C21/C10</f>
+        <f t="shared" ref="C33:J33" si="30">C21/C10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.16351850478108487</v>
       </c>
       <c r="E33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.24989889810146332</v>
       </c>
       <c r="F33" s="24" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.13548846727497652</v>
       </c>
       <c r="H33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.18479166031174693</v>
       </c>
       <c r="I33" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.24996866730700296</v>
       </c>
       <c r="J33" s="24" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="24">
-        <f t="shared" ref="K33:L33" si="30">K21/K10</f>
+        <f t="shared" ref="K33:L33" si="31">K21/K10</f>
         <v>0.13557578861589684</v>
       </c>
       <c r="L33" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.19368343071202923</v>
       </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="3"/>
       <c r="P33" s="24" t="e">
-        <f t="shared" ref="P33:V33" si="31">P21/P10</f>
+        <f t="shared" ref="P33:V33" si="32">P21/P10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="24" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="24" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.1408537303445756</v>
       </c>
       <c r="T33" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.13860004422038963</v>
       </c>
       <c r="U33" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.17440376252138937</v>
       </c>
       <c r="V33" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.19399223204693825</v>
       </c>
     </row>
@@ -2823,74 +2870,74 @@
         <v>56</v>
       </c>
       <c r="C34" s="24" t="e">
-        <f t="shared" ref="C34:J34" si="32">C19/C18</f>
+        <f t="shared" ref="C34:J34" si="33">C19/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.23801089976399492</v>
       </c>
       <c r="E34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.21868218405660322</v>
       </c>
       <c r="F34" s="24" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.22478931030552515</v>
       </c>
       <c r="H34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.24016343066425846</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.21784355295560176</v>
       </c>
       <c r="J34" s="24" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" ref="K34:L34" si="33">K19/K18</f>
+        <f t="shared" ref="K34:L34" si="34">K19/K18</f>
         <v>0.23960211071416876</v>
       </c>
       <c r="L34" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.2167451424832631</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="3"/>
       <c r="P34" s="24" t="e">
-        <f t="shared" ref="P34:V34" si="34">P19/P18</f>
+        <f t="shared" ref="P34:V34" si="35">P19/P18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="24" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="24" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.19957742837003534</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22408652388144393</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22411168705395362</v>
       </c>
       <c r="V34" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.22296165282848296</v>
       </c>
     </row>
@@ -3122,23 +3169,23 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19">
-        <f t="shared" ref="P43:T43" si="35">SUM(P37:P42)</f>
+        <f t="shared" ref="P43:T43" si="36">SUM(P37:P42)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R43" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1910.2529999999999</v>
       </c>
       <c r="U43" s="19">
@@ -3332,23 +3379,23 @@
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="22">
-        <f t="shared" ref="P50:T50" si="36">SUM(P44:P49)+P43</f>
+        <f t="shared" ref="P50:T50" si="37">SUM(P44:P49)+P43</f>
         <v>0</v>
       </c>
       <c r="Q50" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R50" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S50" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T50" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2556.203</v>
       </c>
       <c r="U50" s="22">
@@ -3542,23 +3589,23 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
       <c r="P57" s="19">
-        <f t="shared" ref="P57:T57" si="37">SUM(P51:P56)</f>
+        <f t="shared" ref="P57:T57" si="38">SUM(P51:P56)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R57" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S57" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T57" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>497.38</v>
       </c>
       <c r="U57" s="19">
@@ -3668,23 +3715,23 @@
       <c r="N61" s="19"/>
       <c r="O61" s="19"/>
       <c r="P61" s="22">
-        <f t="shared" ref="P61:T61" si="38">SUM(P58:P60)+P57</f>
+        <f t="shared" ref="P61:T61" si="39">SUM(P58:P60)+P57</f>
         <v>0</v>
       </c>
       <c r="Q61" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R61" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S61" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T61" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>790.47</v>
       </c>
       <c r="U61" s="22">
@@ -3858,27 +3905,27 @@
       <c r="N67" s="19"/>
       <c r="O67" s="19"/>
       <c r="P67" s="22">
-        <f t="shared" ref="P67:U67" si="39">P66+P61</f>
+        <f t="shared" ref="P67:U67" si="40">P66+P61</f>
         <v>0</v>
       </c>
       <c r="Q67" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R67" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S67" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T67" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2556.2039999999997</v>
       </c>
       <c r="U67" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3135.5789999999997</v>
       </c>
     </row>
@@ -3942,23 +3989,23 @@
       <c r="N70" s="19"/>
       <c r="O70" s="19"/>
       <c r="P70" s="19">
-        <f t="shared" ref="P70:T70" si="40">P18-P19</f>
+        <f t="shared" ref="P70:T70" si="41">P18-P19</f>
         <v>0</v>
       </c>
       <c r="Q70" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R70" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S70" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>451.94899999999996</v>
       </c>
       <c r="T70" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>516.82200000000023</v>
       </c>
       <c r="U70" s="19">
